--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K293"/>
+  <dimension ref="A1:L293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,25 +461,30 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>h1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>s1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>l</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>s2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>lesao</t>
         </is>
@@ -509,18 +514,21 @@
         <v>157</v>
       </c>
       <c r="G2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H2" t="n">
         <v>77</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>225</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>191</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>135</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -550,18 +558,21 @@
         <v>147</v>
       </c>
       <c r="G3" t="n">
+        <v>13</v>
+      </c>
+      <c r="H3" t="n">
         <v>82</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>217</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>182</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>122</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -591,18 +602,21 @@
         <v>153</v>
       </c>
       <c r="G4" t="n">
+        <v>15</v>
+      </c>
+      <c r="H4" t="n">
         <v>74</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>215</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>184</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>111</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -632,18 +646,21 @@
         <v>155</v>
       </c>
       <c r="G5" t="n">
+        <v>15</v>
+      </c>
+      <c r="H5" t="n">
         <v>75</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>219</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>187</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>120</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -673,18 +690,21 @@
         <v>187</v>
       </c>
       <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
         <v>57</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>241</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>214</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>168</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -714,18 +734,21 @@
         <v>187</v>
       </c>
       <c r="G7" t="n">
+        <v>11</v>
+      </c>
+      <c r="H7" t="n">
         <v>51</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>234</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>211</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>135</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -755,18 +778,21 @@
         <v>192</v>
       </c>
       <c r="G8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" t="n">
         <v>55</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>245</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>221</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>188</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -796,18 +822,21 @@
         <v>188</v>
       </c>
       <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
         <v>51</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>235</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>212</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>138</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -837,18 +866,21 @@
         <v>139</v>
       </c>
       <c r="G10" t="n">
+        <v>12</v>
+      </c>
+      <c r="H10" t="n">
         <v>85</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>208</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>174</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>108</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -878,18 +910,21 @@
         <v>135</v>
       </c>
       <c r="G11" t="n">
+        <v>12</v>
+      </c>
+      <c r="H11" t="n">
         <v>86</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>204</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>170</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>103</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -919,18 +954,21 @@
         <v>156</v>
       </c>
       <c r="G12" t="n">
+        <v>15</v>
+      </c>
+      <c r="H12" t="n">
         <v>81</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>228</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>192</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>146</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -960,18 +998,21 @@
         <v>152</v>
       </c>
       <c r="G13" t="n">
+        <v>14</v>
+      </c>
+      <c r="H13" t="n">
         <v>82</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>224</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>188</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>137</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -1001,18 +1042,21 @@
         <v>170</v>
       </c>
       <c r="G14" t="n">
+        <v>15</v>
+      </c>
+      <c r="H14" t="n">
         <v>80</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>248</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>209</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>216</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -1042,18 +1086,21 @@
         <v>161</v>
       </c>
       <c r="G15" t="n">
+        <v>14</v>
+      </c>
+      <c r="H15" t="n">
         <v>81</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>236</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>199</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>169</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -1083,18 +1130,21 @@
         <v>156</v>
       </c>
       <c r="G16" t="n">
+        <v>16</v>
+      </c>
+      <c r="H16" t="n">
         <v>86</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>235</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>196</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>169</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -1124,18 +1174,21 @@
         <v>151</v>
       </c>
       <c r="G17" t="n">
+        <v>16</v>
+      </c>
+      <c r="H17" t="n">
         <v>88</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>230</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>191</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>156</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -1165,18 +1218,21 @@
         <v>82</v>
       </c>
       <c r="G18" t="n">
+        <v>11</v>
+      </c>
+      <c r="H18" t="n">
         <v>79</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>119</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>102</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>49</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -1206,18 +1262,21 @@
         <v>82</v>
       </c>
       <c r="G19" t="n">
+        <v>12</v>
+      </c>
+      <c r="H19" t="n">
         <v>82</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>121</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>104</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>48</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -1247,18 +1306,21 @@
         <v>93</v>
       </c>
       <c r="G20" t="n">
+        <v>11</v>
+      </c>
+      <c r="H20" t="n">
         <v>64</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>124</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>106</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>37</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -1288,18 +1350,21 @@
         <v>83</v>
       </c>
       <c r="G21" t="n">
+        <v>11</v>
+      </c>
+      <c r="H21" t="n">
         <v>64</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>111</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>102</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>41</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -1329,18 +1394,21 @@
         <v>101</v>
       </c>
       <c r="G22" t="n">
+        <v>12</v>
+      </c>
+      <c r="H22" t="n">
         <v>77</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>145</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>123</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>46</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -1370,18 +1438,21 @@
         <v>92</v>
       </c>
       <c r="G23" t="n">
+        <v>11</v>
+      </c>
+      <c r="H23" t="n">
         <v>84</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>137</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>112</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>51</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -1411,18 +1482,21 @@
         <v>132</v>
       </c>
       <c r="G24" t="n">
+        <v>8</v>
+      </c>
+      <c r="H24" t="n">
         <v>43</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>159</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>146</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>31</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -1452,18 +1526,21 @@
         <v>113</v>
       </c>
       <c r="G25" t="n">
+        <v>8</v>
+      </c>
+      <c r="H25" t="n">
         <v>67</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>153</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>133</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>42</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -1493,18 +1570,21 @@
         <v>176</v>
       </c>
       <c r="G26" t="n">
+        <v>15</v>
+      </c>
+      <c r="H26" t="n">
         <v>26</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>196</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>186</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>37</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -1534,18 +1614,21 @@
         <v>153</v>
       </c>
       <c r="G27" t="n">
+        <v>10</v>
+      </c>
+      <c r="H27" t="n">
         <v>36</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>178</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>166</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>36</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -1575,18 +1658,21 @@
         <v>188</v>
       </c>
       <c r="G28" t="n">
+        <v>15</v>
+      </c>
+      <c r="H28" t="n">
         <v>25</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>208</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>198</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>45</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -1616,18 +1702,21 @@
         <v>188</v>
       </c>
       <c r="G29" t="n">
+        <v>15</v>
+      </c>
+      <c r="H29" t="n">
         <v>25</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>208</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>198</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>45</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -1657,18 +1746,21 @@
         <v>100</v>
       </c>
       <c r="G30" t="n">
+        <v>11</v>
+      </c>
+      <c r="H30" t="n">
         <v>31</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>114</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>107</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>17</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -1698,18 +1790,21 @@
         <v>112</v>
       </c>
       <c r="G31" t="n">
+        <v>13</v>
+      </c>
+      <c r="H31" t="n">
         <v>32</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>128</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>120</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>17</v>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -1739,18 +1834,21 @@
         <v>131</v>
       </c>
       <c r="G32" t="n">
+        <v>13</v>
+      </c>
+      <c r="H32" t="n">
         <v>28</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>147</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>139</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>18</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -1780,18 +1878,21 @@
         <v>112</v>
       </c>
       <c r="G33" t="n">
+        <v>15</v>
+      </c>
+      <c r="H33" t="n">
         <v>39</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>132</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>122</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>21</v>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -1821,18 +1922,21 @@
         <v>185</v>
       </c>
       <c r="G34" t="n">
+        <v>11</v>
+      </c>
+      <c r="H34" t="n">
         <v>41</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>220</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>203</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>85</v>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -1862,18 +1966,21 @@
         <v>173</v>
       </c>
       <c r="G35" t="n">
+        <v>11</v>
+      </c>
+      <c r="H35" t="n">
         <v>45</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>210</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>192</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>74</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -1903,18 +2010,21 @@
         <v>173</v>
       </c>
       <c r="G36" t="n">
+        <v>13</v>
+      </c>
+      <c r="H36" t="n">
         <v>41</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>206</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>190</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>64</v>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -1944,18 +2054,21 @@
         <v>182</v>
       </c>
       <c r="G37" t="n">
+        <v>11</v>
+      </c>
+      <c r="H37" t="n">
         <v>33</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>209</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>196</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>58</v>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -1985,18 +2098,21 @@
         <v>114</v>
       </c>
       <c r="G38" t="n">
+        <v>11</v>
+      </c>
+      <c r="H38" t="n">
         <v>50</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>142</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>128</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>28</v>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -2026,18 +2142,21 @@
         <v>104</v>
       </c>
       <c r="G39" t="n">
+        <v>10</v>
+      </c>
+      <c r="H39" t="n">
         <v>49</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>129</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>117</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>27</v>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -2067,18 +2186,21 @@
         <v>122</v>
       </c>
       <c r="G40" t="n">
+        <v>13</v>
+      </c>
+      <c r="H40" t="n">
         <v>53</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>154</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>138</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>35</v>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -2108,18 +2230,21 @@
         <v>127</v>
       </c>
       <c r="G41" t="n">
+        <v>12</v>
+      </c>
+      <c r="H41" t="n">
         <v>56</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>163</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>145</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>42</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -2149,18 +2274,21 @@
         <v>201</v>
       </c>
       <c r="G42" t="n">
+        <v>13</v>
+      </c>
+      <c r="H42" t="n">
         <v>11</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>210</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>206</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>23</v>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -2190,18 +2318,21 @@
         <v>209</v>
       </c>
       <c r="G43" t="n">
+        <v>13</v>
+      </c>
+      <c r="H43" t="n">
         <v>8</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>216</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>213</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>21</v>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -2231,18 +2362,21 @@
         <v>149</v>
       </c>
       <c r="G44" t="n">
+        <v>13</v>
+      </c>
+      <c r="H44" t="n">
         <v>11</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>156</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>153</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>9</v>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -2272,18 +2406,21 @@
         <v>152</v>
       </c>
       <c r="G45" t="n">
+        <v>21</v>
+      </c>
+      <c r="H45" t="n">
         <v>16</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>162</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>157</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>13</v>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -2313,18 +2450,21 @@
         <v>160</v>
       </c>
       <c r="G46" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" t="n">
         <v>39</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>189</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>175</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>46</v>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -2354,18 +2494,21 @@
         <v>144</v>
       </c>
       <c r="G47" t="n">
+        <v>6</v>
+      </c>
+      <c r="H47" t="n">
         <v>59</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>187</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>166</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>61</v>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -2395,18 +2538,21 @@
         <v>87</v>
       </c>
       <c r="G48" t="n">
+        <v>11</v>
+      </c>
+      <c r="H48" t="n">
         <v>116</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>160</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>124</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>75</v>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -2436,18 +2582,21 @@
         <v>96</v>
       </c>
       <c r="G49" t="n">
+        <v>11</v>
+      </c>
+      <c r="H49" t="n">
         <v>104</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>162</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>126</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>74</v>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -2480,15 +2629,18 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>204</v>
       </c>
       <c r="J50" t="n">
+        <v>204</v>
+      </c>
+      <c r="K50" t="n">
         <v>0</v>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -2518,18 +2670,21 @@
         <v>184</v>
       </c>
       <c r="G51" t="n">
+        <v>20</v>
+      </c>
+      <c r="H51" t="n">
         <v>4</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>187</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>186</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>6</v>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -2559,18 +2714,21 @@
         <v>162</v>
       </c>
       <c r="G52" t="n">
+        <v>19</v>
+      </c>
+      <c r="H52" t="n">
         <v>12</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>170</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>166</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>11</v>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -2603,15 +2761,18 @@
         <v>16</v>
       </c>
       <c r="H53" t="n">
+        <v>16</v>
+      </c>
+      <c r="I53" t="n">
         <v>180</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>175</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>17</v>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -2641,18 +2802,21 @@
         <v>180</v>
       </c>
       <c r="G54" t="n">
+        <v>14</v>
+      </c>
+      <c r="H54" t="n">
         <v>33</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>207</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>194</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>56</v>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -2682,18 +2846,21 @@
         <v>178</v>
       </c>
       <c r="G55" t="n">
+        <v>12</v>
+      </c>
+      <c r="H55" t="n">
         <v>28</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>200</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>189</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>43</v>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -2723,18 +2890,21 @@
         <v>174</v>
       </c>
       <c r="G56" t="n">
+        <v>13</v>
+      </c>
+      <c r="H56" t="n">
         <v>32</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>199</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>187</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>47</v>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -2764,18 +2934,21 @@
         <v>174</v>
       </c>
       <c r="G57" t="n">
+        <v>12</v>
+      </c>
+      <c r="H57" t="n">
         <v>38</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>204</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>189</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>58</v>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -2805,18 +2978,21 @@
         <v>154</v>
       </c>
       <c r="G58" t="n">
+        <v>14</v>
+      </c>
+      <c r="H58" t="n">
         <v>20</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>167</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>161</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>18</v>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -2846,18 +3022,21 @@
         <v>159</v>
       </c>
       <c r="G59" t="n">
+        <v>11</v>
+      </c>
+      <c r="H59" t="n">
         <v>12</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>167</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>163</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>11</v>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -2887,18 +3066,21 @@
         <v>97</v>
       </c>
       <c r="G60" t="n">
+        <v>15</v>
+      </c>
+      <c r="H60" t="n">
         <v>78</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>140</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>119</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>46</v>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -2928,18 +3110,21 @@
         <v>101</v>
       </c>
       <c r="G61" t="n">
+        <v>14</v>
+      </c>
+      <c r="H61" t="n">
         <v>72</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>141</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>121</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>42</v>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -2969,18 +3154,21 @@
         <v>96</v>
       </c>
       <c r="G62" t="n">
+        <v>13</v>
+      </c>
+      <c r="H62" t="n">
         <v>85</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>144</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>120</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>51</v>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -3010,18 +3198,21 @@
         <v>102</v>
       </c>
       <c r="G63" t="n">
+        <v>14</v>
+      </c>
+      <c r="H63" t="n">
         <v>83</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>151</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>127</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>49</v>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -3051,18 +3242,21 @@
         <v>98</v>
       </c>
       <c r="G64" t="n">
+        <v>12</v>
+      </c>
+      <c r="H64" t="n">
         <v>78</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>141</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>116</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>47</v>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -3092,18 +3286,21 @@
         <v>97</v>
       </c>
       <c r="G65" t="n">
+        <v>13</v>
+      </c>
+      <c r="H65" t="n">
         <v>81</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>142</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>120</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>48</v>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -3133,18 +3330,21 @@
         <v>80</v>
       </c>
       <c r="G66" t="n">
+        <v>12</v>
+      </c>
+      <c r="H66" t="n">
         <v>109</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>140</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>110</v>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>70</v>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="L66" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -3174,18 +3374,21 @@
         <v>76</v>
       </c>
       <c r="G67" t="n">
+        <v>13</v>
+      </c>
+      <c r="H67" t="n">
         <v>111</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>135</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>106</v>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>71</v>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="L67" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -3215,18 +3418,21 @@
         <v>71</v>
       </c>
       <c r="G68" t="n">
+        <v>11</v>
+      </c>
+      <c r="H68" t="n">
         <v>104</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>120</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>96</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>65</v>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="L68" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -3256,18 +3462,21 @@
         <v>76</v>
       </c>
       <c r="G69" t="n">
+        <v>11</v>
+      </c>
+      <c r="H69" t="n">
         <v>104</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>128</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>102</v>
       </c>
-      <c r="J69" t="n">
+      <c r="K69" t="n">
         <v>65</v>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="L69" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -3297,18 +3506,21 @@
         <v>93</v>
       </c>
       <c r="G70" t="n">
+        <v>12</v>
+      </c>
+      <c r="H70" t="n">
         <v>84</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>139</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>116</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>51</v>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="L70" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -3338,18 +3550,21 @@
         <v>88</v>
       </c>
       <c r="G71" t="n">
+        <v>12</v>
+      </c>
+      <c r="H71" t="n">
         <v>84</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>131</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>110</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>50</v>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -3379,18 +3594,21 @@
         <v>87</v>
       </c>
       <c r="G72" t="n">
+        <v>11</v>
+      </c>
+      <c r="H72" t="n">
         <v>82</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>128</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>108</v>
       </c>
-      <c r="J72" t="n">
+      <c r="K72" t="n">
         <v>46</v>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -3420,18 +3638,21 @@
         <v>90</v>
       </c>
       <c r="G73" t="n">
+        <v>11</v>
+      </c>
+      <c r="H73" t="n">
         <v>80</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>131</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>110</v>
       </c>
-      <c r="J73" t="n">
+      <c r="K73" t="n">
         <v>47</v>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -3461,18 +3682,21 @@
         <v>121</v>
       </c>
       <c r="G74" t="n">
+        <v>12</v>
+      </c>
+      <c r="H74" t="n">
         <v>67</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>164</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>143</v>
       </c>
-      <c r="J74" t="n">
+      <c r="K74" t="n">
         <v>49</v>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -3502,18 +3726,21 @@
         <v>115</v>
       </c>
       <c r="G75" t="n">
+        <v>12</v>
+      </c>
+      <c r="H75" t="n">
         <v>73</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>161</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>138</v>
       </c>
-      <c r="J75" t="n">
+      <c r="K75" t="n">
         <v>50</v>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -3543,18 +3770,21 @@
         <v>165</v>
       </c>
       <c r="G76" t="n">
+        <v>13</v>
+      </c>
+      <c r="H76" t="n">
         <v>42</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>198</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>182</v>
       </c>
-      <c r="J76" t="n">
+      <c r="K76" t="n">
         <v>57</v>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -3584,18 +3814,21 @@
         <v>134</v>
       </c>
       <c r="G77" t="n">
+        <v>11</v>
+      </c>
+      <c r="H77" t="n">
         <v>55</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>171</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>153</v>
       </c>
-      <c r="J77" t="n">
+      <c r="K77" t="n">
         <v>46</v>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -3625,18 +3858,21 @@
         <v>72</v>
       </c>
       <c r="G78" t="n">
+        <v>13</v>
+      </c>
+      <c r="H78" t="n">
         <v>118</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>134</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>106</v>
       </c>
-      <c r="J78" t="n">
+      <c r="K78" t="n">
         <v>75</v>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -3666,18 +3902,21 @@
         <v>92</v>
       </c>
       <c r="G79" t="n">
+        <v>14</v>
+      </c>
+      <c r="H79" t="n">
         <v>103</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>154</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>123</v>
       </c>
-      <c r="J79" t="n">
+      <c r="K79" t="n">
         <v>64</v>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -3707,18 +3946,21 @@
         <v>72</v>
       </c>
       <c r="G80" t="n">
+        <v>13</v>
+      </c>
+      <c r="H80" t="n">
         <v>117</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>133</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>108</v>
       </c>
-      <c r="J80" t="n">
+      <c r="K80" t="n">
         <v>72</v>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -3748,18 +3990,21 @@
         <v>84</v>
       </c>
       <c r="G81" t="n">
+        <v>14</v>
+      </c>
+      <c r="H81" t="n">
         <v>108</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>146</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>115</v>
       </c>
-      <c r="J81" t="n">
+      <c r="K81" t="n">
         <v>69</v>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -3789,18 +4034,21 @@
         <v>82</v>
       </c>
       <c r="G82" t="n">
+        <v>13</v>
+      </c>
+      <c r="H82" t="n">
         <v>101</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>136</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>109</v>
       </c>
-      <c r="J82" t="n">
+      <c r="K82" t="n">
         <v>63</v>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -3830,18 +4078,21 @@
         <v>131</v>
       </c>
       <c r="G83" t="n">
+        <v>18</v>
+      </c>
+      <c r="H83" t="n">
         <v>61</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>172</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>152</v>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>51</v>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -3871,18 +4122,21 @@
         <v>99</v>
       </c>
       <c r="G84" t="n">
+        <v>16</v>
+      </c>
+      <c r="H84" t="n">
         <v>86</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>149</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>124</v>
       </c>
-      <c r="J84" t="n">
+      <c r="K84" t="n">
         <v>51</v>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -3912,18 +4166,21 @@
         <v>110</v>
       </c>
       <c r="G85" t="n">
+        <v>18</v>
+      </c>
+      <c r="H85" t="n">
         <v>72</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>153</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>132</v>
       </c>
-      <c r="J85" t="n">
+      <c r="K85" t="n">
         <v>44</v>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -3953,18 +4210,21 @@
         <v>81</v>
       </c>
       <c r="G86" t="n">
+        <v>15</v>
+      </c>
+      <c r="H86" t="n">
         <v>113</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>145</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>113</v>
       </c>
-      <c r="J86" t="n">
+      <c r="K86" t="n">
         <v>72</v>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="L86" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -3994,18 +4254,21 @@
         <v>82</v>
       </c>
       <c r="G87" t="n">
+        <v>14</v>
+      </c>
+      <c r="H87" t="n">
         <v>110</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>144</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>118</v>
       </c>
-      <c r="J87" t="n">
+      <c r="K87" t="n">
         <v>68</v>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="L87" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -4035,18 +4298,21 @@
         <v>83</v>
       </c>
       <c r="G88" t="n">
+        <v>14</v>
+      </c>
+      <c r="H88" t="n">
         <v>106</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>142</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>112</v>
       </c>
-      <c r="J88" t="n">
+      <c r="K88" t="n">
         <v>67</v>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="L88" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -4076,18 +4342,21 @@
         <v>85</v>
       </c>
       <c r="G89" t="n">
+        <v>14</v>
+      </c>
+      <c r="H89" t="n">
         <v>108</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>147</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>116</v>
       </c>
-      <c r="J89" t="n">
+      <c r="K89" t="n">
         <v>68</v>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="L89" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -4117,18 +4386,21 @@
         <v>83</v>
       </c>
       <c r="G90" t="n">
+        <v>14</v>
+      </c>
+      <c r="H90" t="n">
         <v>112</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>148</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>120</v>
       </c>
-      <c r="J90" t="n">
+      <c r="K90" t="n">
         <v>69</v>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="L90" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -4158,18 +4430,21 @@
         <v>100</v>
       </c>
       <c r="G91" t="n">
+        <v>15</v>
+      </c>
+      <c r="H91" t="n">
         <v>101</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>166</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>133</v>
       </c>
-      <c r="J91" t="n">
+      <c r="K91" t="n">
         <v>69</v>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="L91" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -4199,18 +4474,21 @@
         <v>72</v>
       </c>
       <c r="G92" t="n">
+        <v>13</v>
+      </c>
+      <c r="H92" t="n">
         <v>119</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>135</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>106</v>
       </c>
-      <c r="J92" t="n">
+      <c r="K92" t="n">
         <v>75</v>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="L92" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -4240,18 +4518,21 @@
         <v>78</v>
       </c>
       <c r="G93" t="n">
+        <v>13</v>
+      </c>
+      <c r="H93" t="n">
         <v>117</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>144</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>111</v>
       </c>
-      <c r="J93" t="n">
+      <c r="K93" t="n">
         <v>76</v>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -4281,18 +4562,21 @@
         <v>136</v>
       </c>
       <c r="G94" t="n">
+        <v>16</v>
+      </c>
+      <c r="H94" t="n">
         <v>74</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>192</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>164</v>
       </c>
-      <c r="J94" t="n">
+      <c r="K94" t="n">
         <v>78</v>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -4322,18 +4606,21 @@
         <v>145</v>
       </c>
       <c r="G95" t="n">
+        <v>15</v>
+      </c>
+      <c r="H95" t="n">
         <v>66</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>196</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>171</v>
       </c>
-      <c r="J95" t="n">
+      <c r="K95" t="n">
         <v>77</v>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="L95" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -4363,18 +4650,21 @@
         <v>134</v>
       </c>
       <c r="G96" t="n">
+        <v>13</v>
+      </c>
+      <c r="H96" t="n">
         <v>67</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>182</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>158</v>
       </c>
-      <c r="J96" t="n">
+      <c r="K96" t="n">
         <v>63</v>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="L96" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -4404,18 +4694,21 @@
         <v>121</v>
       </c>
       <c r="G97" t="n">
+        <v>12</v>
+      </c>
+      <c r="H97" t="n">
         <v>77</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>173</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>149</v>
       </c>
-      <c r="J97" t="n">
+      <c r="K97" t="n">
         <v>63</v>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="L97" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -4445,18 +4738,21 @@
         <v>129</v>
       </c>
       <c r="G98" t="n">
+        <v>12</v>
+      </c>
+      <c r="H98" t="n">
         <v>64</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>172</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>151</v>
       </c>
-      <c r="J98" t="n">
+      <c r="K98" t="n">
         <v>52</v>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="L98" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -4486,18 +4782,21 @@
         <v>123</v>
       </c>
       <c r="G99" t="n">
+        <v>12</v>
+      </c>
+      <c r="H99" t="n">
         <v>69</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>169</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>146</v>
       </c>
-      <c r="J99" t="n">
+      <c r="K99" t="n">
         <v>54</v>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="L99" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -4527,18 +4826,21 @@
         <v>106</v>
       </c>
       <c r="G100" t="n">
+        <v>10</v>
+      </c>
+      <c r="H100" t="n">
         <v>69</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>145</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>126</v>
       </c>
-      <c r="J100" t="n">
+      <c r="K100" t="n">
         <v>40</v>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="L100" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -4568,18 +4870,21 @@
         <v>104</v>
       </c>
       <c r="G101" t="n">
+        <v>10</v>
+      </c>
+      <c r="H101" t="n">
         <v>73</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>146</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>125</v>
       </c>
-      <c r="J101" t="n">
+      <c r="K101" t="n">
         <v>43</v>
       </c>
-      <c r="K101" t="inlineStr">
+      <c r="L101" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -4609,18 +4914,21 @@
         <v>97</v>
       </c>
       <c r="G102" t="n">
+        <v>13</v>
+      </c>
+      <c r="H102" t="n">
         <v>81</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>142</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>116</v>
       </c>
-      <c r="J102" t="n">
+      <c r="K102" t="n">
         <v>47</v>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="L102" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -4650,18 +4958,21 @@
         <v>89</v>
       </c>
       <c r="G103" t="n">
+        <v>13</v>
+      </c>
+      <c r="H103" t="n">
         <v>86</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>134</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>112</v>
       </c>
-      <c r="J103" t="n">
+      <c r="K103" t="n">
         <v>51</v>
       </c>
-      <c r="K103" t="inlineStr">
+      <c r="L103" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -4691,18 +5002,21 @@
         <v>114</v>
       </c>
       <c r="G104" t="n">
+        <v>14</v>
+      </c>
+      <c r="H104" t="n">
         <v>77</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>163</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>139</v>
       </c>
-      <c r="J104" t="n">
+      <c r="K104" t="n">
         <v>54</v>
       </c>
-      <c r="K104" t="inlineStr">
+      <c r="L104" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -4732,18 +5046,21 @@
         <v>113</v>
       </c>
       <c r="G105" t="n">
+        <v>14</v>
+      </c>
+      <c r="H105" t="n">
         <v>77</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>162</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
         <v>138</v>
       </c>
-      <c r="J105" t="n">
+      <c r="K105" t="n">
         <v>53</v>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="L105" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -4773,18 +5090,21 @@
         <v>114</v>
       </c>
       <c r="G106" t="n">
+        <v>12</v>
+      </c>
+      <c r="H106" t="n">
         <v>70</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>157</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J106" t="n">
         <v>136</v>
       </c>
-      <c r="J106" t="n">
+      <c r="K106" t="n">
         <v>46</v>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="L106" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -4814,18 +5134,21 @@
         <v>103</v>
       </c>
       <c r="G107" t="n">
+        <v>13</v>
+      </c>
+      <c r="H107" t="n">
         <v>78</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>148</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
         <v>126</v>
       </c>
-      <c r="J107" t="n">
+      <c r="K107" t="n">
         <v>46</v>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="L107" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -4855,18 +5178,21 @@
         <v>113</v>
       </c>
       <c r="G108" t="n">
+        <v>15</v>
+      </c>
+      <c r="H108" t="n">
         <v>73</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>158</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
         <v>136</v>
       </c>
-      <c r="J108" t="n">
+      <c r="K108" t="n">
         <v>48</v>
       </c>
-      <c r="K108" t="inlineStr">
+      <c r="L108" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -4896,18 +5222,21 @@
         <v>114</v>
       </c>
       <c r="G109" t="n">
+        <v>15</v>
+      </c>
+      <c r="H109" t="n">
         <v>72</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>159</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J109" t="n">
         <v>137</v>
       </c>
-      <c r="J109" t="n">
+      <c r="K109" t="n">
         <v>48</v>
       </c>
-      <c r="K109" t="inlineStr">
+      <c r="L109" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -4937,18 +5266,21 @@
         <v>165</v>
       </c>
       <c r="G110" t="n">
+        <v>14</v>
+      </c>
+      <c r="H110" t="n">
         <v>46</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>201</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J110" t="n">
         <v>183</v>
       </c>
-      <c r="J110" t="n">
+      <c r="K110" t="n">
         <v>64</v>
       </c>
-      <c r="K110" t="inlineStr">
+      <c r="L110" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -4978,18 +5310,21 @@
         <v>156</v>
       </c>
       <c r="G111" t="n">
+        <v>12</v>
+      </c>
+      <c r="H111" t="n">
         <v>55</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>199</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>178</v>
       </c>
-      <c r="J111" t="n">
+      <c r="K111" t="n">
         <v>71</v>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="L111" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -5019,18 +5354,21 @@
         <v>159</v>
       </c>
       <c r="G112" t="n">
+        <v>14</v>
+      </c>
+      <c r="H112" t="n">
         <v>47</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>195</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J112" t="n">
         <v>177</v>
       </c>
-      <c r="J112" t="n">
+      <c r="K112" t="n">
         <v>59</v>
       </c>
-      <c r="K112" t="inlineStr">
+      <c r="L112" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -5060,18 +5398,21 @@
         <v>146</v>
       </c>
       <c r="G113" t="n">
+        <v>14</v>
+      </c>
+      <c r="H113" t="n">
         <v>55</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>186</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J113" t="n">
         <v>166</v>
       </c>
-      <c r="J113" t="n">
+      <c r="K113" t="n">
         <v>57</v>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="L113" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -5101,18 +5442,21 @@
         <v>102</v>
       </c>
       <c r="G114" t="n">
+        <v>14</v>
+      </c>
+      <c r="H114" t="n">
         <v>101</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>169</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J114" t="n">
         <v>136</v>
       </c>
-      <c r="J114" t="n">
+      <c r="K114" t="n">
         <v>71</v>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="L114" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -5142,18 +5486,21 @@
         <v>111</v>
       </c>
       <c r="G115" t="n">
+        <v>15</v>
+      </c>
+      <c r="H115" t="n">
         <v>93</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>175</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>143</v>
       </c>
-      <c r="J115" t="n">
+      <c r="K115" t="n">
         <v>73</v>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="L115" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -5183,18 +5530,21 @@
         <v>93</v>
       </c>
       <c r="G116" t="n">
+        <v>14</v>
+      </c>
+      <c r="H116" t="n">
         <v>102</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>155</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>124</v>
       </c>
-      <c r="J116" t="n">
+      <c r="K116" t="n">
         <v>60</v>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="L116" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -5224,18 +5574,21 @@
         <v>101</v>
       </c>
       <c r="G117" t="n">
+        <v>14</v>
+      </c>
+      <c r="H117" t="n">
         <v>97</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>163</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J117" t="n">
         <v>132</v>
       </c>
-      <c r="J117" t="n">
+      <c r="K117" t="n">
         <v>64</v>
       </c>
-      <c r="K117" t="inlineStr">
+      <c r="L117" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -5265,18 +5618,21 @@
         <v>143</v>
       </c>
       <c r="G118" t="n">
+        <v>14</v>
+      </c>
+      <c r="H118" t="n">
         <v>41</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>170</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>157</v>
       </c>
-      <c r="J118" t="n">
+      <c r="K118" t="n">
         <v>35</v>
       </c>
-      <c r="K118" t="inlineStr">
+      <c r="L118" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -5306,18 +5662,21 @@
         <v>157</v>
       </c>
       <c r="G119" t="n">
+        <v>16</v>
+      </c>
+      <c r="H119" t="n">
         <v>36</v>
       </c>
-      <c r="H119" t="n">
+      <c r="I119" t="n">
         <v>183</v>
       </c>
-      <c r="I119" t="n">
+      <c r="J119" t="n">
         <v>170</v>
       </c>
-      <c r="J119" t="n">
+      <c r="K119" t="n">
         <v>39</v>
       </c>
-      <c r="K119" t="inlineStr">
+      <c r="L119" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -5347,18 +5706,21 @@
         <v>149</v>
       </c>
       <c r="G120" t="n">
+        <v>15</v>
+      </c>
+      <c r="H120" t="n">
         <v>44</v>
       </c>
-      <c r="H120" t="n">
+      <c r="I120" t="n">
         <v>180</v>
       </c>
-      <c r="I120" t="n">
+      <c r="J120" t="n">
         <v>165</v>
       </c>
-      <c r="J120" t="n">
+      <c r="K120" t="n">
         <v>44</v>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="L120" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -5388,18 +5750,21 @@
         <v>162</v>
       </c>
       <c r="G121" t="n">
+        <v>16</v>
+      </c>
+      <c r="H121" t="n">
         <v>35</v>
       </c>
-      <c r="H121" t="n">
+      <c r="I121" t="n">
         <v>188</v>
       </c>
-      <c r="I121" t="n">
+      <c r="J121" t="n">
         <v>175</v>
       </c>
-      <c r="J121" t="n">
+      <c r="K121" t="n">
         <v>41</v>
       </c>
-      <c r="K121" t="inlineStr">
+      <c r="L121" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -5429,18 +5794,21 @@
         <v>133</v>
       </c>
       <c r="G122" t="n">
+        <v>13</v>
+      </c>
+      <c r="H122" t="n">
         <v>60</v>
       </c>
-      <c r="H122" t="n">
+      <c r="I122" t="n">
         <v>174</v>
       </c>
-      <c r="I122" t="n">
+      <c r="J122" t="n">
         <v>154</v>
       </c>
-      <c r="J122" t="n">
+      <c r="K122" t="n">
         <v>52</v>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="L122" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -5470,18 +5838,21 @@
         <v>130</v>
       </c>
       <c r="G123" t="n">
+        <v>14</v>
+      </c>
+      <c r="H123" t="n">
         <v>60</v>
       </c>
-      <c r="H123" t="n">
+      <c r="I123" t="n">
         <v>170</v>
       </c>
-      <c r="I123" t="n">
+      <c r="J123" t="n">
         <v>150</v>
       </c>
-      <c r="J123" t="n">
+      <c r="K123" t="n">
         <v>49</v>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="L123" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -5511,18 +5882,21 @@
         <v>121</v>
       </c>
       <c r="G124" t="n">
+        <v>13</v>
+      </c>
+      <c r="H124" t="n">
         <v>61</v>
       </c>
-      <c r="H124" t="n">
+      <c r="I124" t="n">
         <v>159</v>
       </c>
-      <c r="I124" t="n">
+      <c r="J124" t="n">
         <v>140</v>
       </c>
-      <c r="J124" t="n">
+      <c r="K124" t="n">
         <v>42</v>
       </c>
-      <c r="K124" t="inlineStr">
+      <c r="L124" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -5552,18 +5926,21 @@
         <v>124</v>
       </c>
       <c r="G125" t="n">
+        <v>16</v>
+      </c>
+      <c r="H125" t="n">
         <v>60</v>
       </c>
-      <c r="H125" t="n">
+      <c r="I125" t="n">
         <v>162</v>
       </c>
-      <c r="I125" t="n">
+      <c r="J125" t="n">
         <v>143</v>
       </c>
-      <c r="J125" t="n">
+      <c r="K125" t="n">
         <v>43</v>
       </c>
-      <c r="K125" t="inlineStr">
+      <c r="L125" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -5593,18 +5970,21 @@
         <v>127</v>
       </c>
       <c r="G126" t="n">
+        <v>16</v>
+      </c>
+      <c r="H126" t="n">
         <v>78</v>
       </c>
-      <c r="H126" t="n">
+      <c r="I126" t="n">
         <v>183</v>
       </c>
-      <c r="I126" t="n">
+      <c r="J126" t="n">
         <v>155</v>
       </c>
-      <c r="J126" t="n">
+      <c r="K126" t="n">
         <v>71</v>
       </c>
-      <c r="K126" t="inlineStr">
+      <c r="L126" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -5634,18 +6014,21 @@
         <v>122</v>
       </c>
       <c r="G127" t="n">
+        <v>14</v>
+      </c>
+      <c r="H127" t="n">
         <v>86</v>
       </c>
-      <c r="H127" t="n">
+      <c r="I127" t="n">
         <v>184</v>
       </c>
-      <c r="I127" t="n">
+      <c r="J127" t="n">
         <v>153</v>
       </c>
-      <c r="J127" t="n">
+      <c r="K127" t="n">
         <v>78</v>
       </c>
-      <c r="K127" t="inlineStr">
+      <c r="L127" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -5675,18 +6058,21 @@
         <v>105</v>
       </c>
       <c r="G128" t="n">
+        <v>14</v>
+      </c>
+      <c r="H128" t="n">
         <v>92</v>
       </c>
-      <c r="H128" t="n">
+      <c r="I128" t="n">
         <v>164</v>
       </c>
-      <c r="I128" t="n">
+      <c r="J128" t="n">
         <v>135</v>
       </c>
-      <c r="J128" t="n">
+      <c r="K128" t="n">
         <v>62</v>
       </c>
-      <c r="K128" t="inlineStr">
+      <c r="L128" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -5716,18 +6102,21 @@
         <v>89</v>
       </c>
       <c r="G129" t="n">
+        <v>13</v>
+      </c>
+      <c r="H129" t="n">
         <v>106</v>
       </c>
-      <c r="H129" t="n">
+      <c r="I129" t="n">
         <v>152</v>
       </c>
-      <c r="I129" t="n">
+      <c r="J129" t="n">
         <v>122</v>
       </c>
-      <c r="J129" t="n">
+      <c r="K129" t="n">
         <v>66</v>
       </c>
-      <c r="K129" t="inlineStr">
+      <c r="L129" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -5757,18 +6146,21 @@
         <v>66</v>
       </c>
       <c r="G130" t="n">
+        <v>13</v>
+      </c>
+      <c r="H130" t="n">
         <v>126</v>
       </c>
-      <c r="H130" t="n">
+      <c r="I130" t="n">
         <v>130</v>
       </c>
-      <c r="I130" t="n">
+      <c r="J130" t="n">
         <v>98</v>
       </c>
-      <c r="J130" t="n">
+      <c r="K130" t="n">
         <v>83</v>
       </c>
-      <c r="K130" t="inlineStr">
+      <c r="L130" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -5798,18 +6190,21 @@
         <v>60</v>
       </c>
       <c r="G131" t="n">
+        <v>11</v>
+      </c>
+      <c r="H131" t="n">
         <v>125</v>
       </c>
-      <c r="H131" t="n">
+      <c r="I131" t="n">
         <v>118</v>
       </c>
-      <c r="I131" t="n">
+      <c r="J131" t="n">
         <v>89</v>
       </c>
-      <c r="J131" t="n">
+      <c r="K131" t="n">
         <v>83</v>
       </c>
-      <c r="K131" t="inlineStr">
+      <c r="L131" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -5839,18 +6234,21 @@
         <v>79</v>
       </c>
       <c r="G132" t="n">
+        <v>12</v>
+      </c>
+      <c r="H132" t="n">
         <v>113</v>
       </c>
-      <c r="H132" t="n">
+      <c r="I132" t="n">
         <v>142</v>
       </c>
-      <c r="I132" t="n">
+      <c r="J132" t="n">
         <v>110</v>
       </c>
-      <c r="J132" t="n">
+      <c r="K132" t="n">
         <v>73</v>
       </c>
-      <c r="K132" t="inlineStr">
+      <c r="L132" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -5880,18 +6278,21 @@
         <v>72</v>
       </c>
       <c r="G133" t="n">
+        <v>11</v>
+      </c>
+      <c r="H133" t="n">
         <v>123</v>
       </c>
-      <c r="H133" t="n">
+      <c r="I133" t="n">
         <v>139</v>
       </c>
-      <c r="I133" t="n">
+      <c r="J133" t="n">
         <v>108</v>
       </c>
-      <c r="J133" t="n">
+      <c r="K133" t="n">
         <v>79</v>
       </c>
-      <c r="K133" t="inlineStr">
+      <c r="L133" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -5921,18 +6322,21 @@
         <v>164</v>
       </c>
       <c r="G134" t="n">
+        <v>13</v>
+      </c>
+      <c r="H134" t="n">
         <v>43</v>
       </c>
-      <c r="H134" t="n">
+      <c r="I134" t="n">
         <v>197</v>
       </c>
-      <c r="I134" t="n">
+      <c r="J134" t="n">
         <v>181</v>
       </c>
-      <c r="J134" t="n">
+      <c r="K134" t="n">
         <v>56</v>
       </c>
-      <c r="K134" t="inlineStr">
+      <c r="L134" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -5962,18 +6366,21 @@
         <v>178</v>
       </c>
       <c r="G135" t="n">
+        <v>13</v>
+      </c>
+      <c r="H135" t="n">
         <v>36</v>
       </c>
-      <c r="H135" t="n">
+      <c r="I135" t="n">
         <v>207</v>
       </c>
-      <c r="I135" t="n">
+      <c r="J135" t="n">
         <v>193</v>
       </c>
-      <c r="J135" t="n">
+      <c r="K135" t="n">
         <v>59</v>
       </c>
-      <c r="K135" t="inlineStr">
+      <c r="L135" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -6003,18 +6410,21 @@
         <v>168</v>
       </c>
       <c r="G136" t="n">
+        <v>18</v>
+      </c>
+      <c r="H136" t="n">
         <v>41</v>
       </c>
-      <c r="H136" t="n">
+      <c r="I136" t="n">
         <v>200</v>
       </c>
-      <c r="I136" t="n">
+      <c r="J136" t="n">
         <v>184</v>
       </c>
-      <c r="J136" t="n">
+      <c r="K136" t="n">
         <v>57</v>
       </c>
-      <c r="K136" t="inlineStr">
+      <c r="L136" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -6044,18 +6454,21 @@
         <v>167</v>
       </c>
       <c r="G137" t="n">
+        <v>18</v>
+      </c>
+      <c r="H137" t="n">
         <v>41</v>
       </c>
-      <c r="H137" t="n">
+      <c r="I137" t="n">
         <v>199</v>
       </c>
-      <c r="I137" t="n">
+      <c r="J137" t="n">
         <v>183</v>
       </c>
-      <c r="J137" t="n">
+      <c r="K137" t="n">
         <v>57</v>
       </c>
-      <c r="K137" t="inlineStr">
+      <c r="L137" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -6085,18 +6498,21 @@
         <v>150</v>
       </c>
       <c r="G138" t="n">
+        <v>17</v>
+      </c>
+      <c r="H138" t="n">
         <v>41</v>
       </c>
-      <c r="H138" t="n">
+      <c r="I138" t="n">
         <v>179</v>
       </c>
-      <c r="I138" t="n">
+      <c r="J138" t="n">
         <v>165</v>
       </c>
-      <c r="J138" t="n">
+      <c r="K138" t="n">
         <v>41</v>
       </c>
-      <c r="K138" t="inlineStr">
+      <c r="L138" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -6126,18 +6542,21 @@
         <v>147</v>
       </c>
       <c r="G139" t="n">
+        <v>15</v>
+      </c>
+      <c r="H139" t="n">
         <v>44</v>
       </c>
-      <c r="H139" t="n">
+      <c r="I139" t="n">
         <v>178</v>
       </c>
-      <c r="I139" t="n">
+      <c r="J139" t="n">
         <v>163</v>
       </c>
-      <c r="J139" t="n">
+      <c r="K139" t="n">
         <v>43</v>
       </c>
-      <c r="K139" t="inlineStr">
+      <c r="L139" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -6167,18 +6586,21 @@
         <v>161</v>
       </c>
       <c r="G140" t="n">
+        <v>13</v>
+      </c>
+      <c r="H140" t="n">
         <v>43</v>
       </c>
-      <c r="H140" t="n">
+      <c r="I140" t="n">
         <v>194</v>
       </c>
-      <c r="I140" t="n">
+      <c r="J140" t="n">
         <v>178</v>
       </c>
-      <c r="J140" t="n">
+      <c r="K140" t="n">
         <v>54</v>
       </c>
-      <c r="K140" t="inlineStr">
+      <c r="L140" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -6208,18 +6630,21 @@
         <v>165</v>
       </c>
       <c r="G141" t="n">
+        <v>12</v>
+      </c>
+      <c r="H141" t="n">
         <v>46</v>
       </c>
-      <c r="H141" t="n">
+      <c r="I141" t="n">
         <v>201</v>
       </c>
-      <c r="I141" t="n">
+      <c r="J141" t="n">
         <v>183</v>
       </c>
-      <c r="J141" t="n">
+      <c r="K141" t="n">
         <v>64</v>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="L141" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -6249,18 +6674,21 @@
         <v>123</v>
       </c>
       <c r="G142" t="n">
+        <v>17</v>
+      </c>
+      <c r="H142" t="n">
         <v>55</v>
       </c>
-      <c r="H142" t="n">
+      <c r="I142" t="n">
         <v>157</v>
       </c>
-      <c r="I142" t="n">
+      <c r="J142" t="n">
         <v>140</v>
       </c>
-      <c r="J142" t="n">
+      <c r="K142" t="n">
         <v>38</v>
       </c>
-      <c r="K142" t="inlineStr">
+      <c r="L142" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -6290,18 +6718,21 @@
         <v>146</v>
       </c>
       <c r="G143" t="n">
+        <v>15</v>
+      </c>
+      <c r="H143" t="n">
         <v>46</v>
       </c>
-      <c r="H143" t="n">
+      <c r="I143" t="n">
         <v>178</v>
       </c>
-      <c r="I143" t="n">
+      <c r="J143" t="n">
         <v>162</v>
       </c>
-      <c r="J143" t="n">
+      <c r="K143" t="n">
         <v>44</v>
       </c>
-      <c r="K143" t="inlineStr">
+      <c r="L143" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -6331,18 +6762,21 @@
         <v>191</v>
       </c>
       <c r="G144" t="n">
+        <v>15</v>
+      </c>
+      <c r="H144" t="n">
         <v>37</v>
       </c>
-      <c r="H144" t="n">
+      <c r="I144" t="n">
         <v>223</v>
       </c>
-      <c r="I144" t="n">
+      <c r="J144" t="n">
         <v>207</v>
       </c>
-      <c r="J144" t="n">
+      <c r="K144" t="n">
         <v>85</v>
       </c>
-      <c r="K144" t="inlineStr">
+      <c r="L144" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -6372,18 +6806,21 @@
         <v>186</v>
       </c>
       <c r="G145" t="n">
+        <v>15</v>
+      </c>
+      <c r="H145" t="n">
         <v>37</v>
       </c>
-      <c r="H145" t="n">
+      <c r="I145" t="n">
         <v>218</v>
       </c>
-      <c r="I145" t="n">
+      <c r="J145" t="n">
         <v>202</v>
       </c>
-      <c r="J145" t="n">
+      <c r="K145" t="n">
         <v>77</v>
       </c>
-      <c r="K145" t="inlineStr">
+      <c r="L145" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -6413,18 +6850,21 @@
         <v>138</v>
       </c>
       <c r="G146" t="n">
+        <v>11</v>
+      </c>
+      <c r="H146" t="n">
         <v>47</v>
       </c>
-      <c r="H146" t="n">
+      <c r="I146" t="n">
         <v>169</v>
       </c>
-      <c r="I146" t="n">
+      <c r="J146" t="n">
         <v>154</v>
       </c>
-      <c r="J146" t="n">
+      <c r="K146" t="n">
         <v>39</v>
       </c>
-      <c r="K146" t="inlineStr">
+      <c r="L146" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -6454,18 +6894,21 @@
         <v>140</v>
       </c>
       <c r="G147" t="n">
+        <v>8</v>
+      </c>
+      <c r="H147" t="n">
         <v>41</v>
       </c>
-      <c r="H147" t="n">
+      <c r="I147" t="n">
         <v>167</v>
       </c>
-      <c r="I147" t="n">
+      <c r="J147" t="n">
         <v>154</v>
       </c>
-      <c r="J147" t="n">
+      <c r="K147" t="n">
         <v>34</v>
       </c>
-      <c r="K147" t="inlineStr">
+      <c r="L147" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -6495,18 +6938,21 @@
         <v>109</v>
       </c>
       <c r="G148" t="n">
+        <v>13</v>
+      </c>
+      <c r="H148" t="n">
         <v>66</v>
       </c>
-      <c r="H148" t="n">
+      <c r="I148" t="n">
         <v>147</v>
       </c>
-      <c r="I148" t="n">
+      <c r="J148" t="n">
         <v>128</v>
       </c>
-      <c r="J148" t="n">
+      <c r="K148" t="n">
         <v>38</v>
       </c>
-      <c r="K148" t="inlineStr">
+      <c r="L148" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -6536,18 +6982,21 @@
         <v>112</v>
       </c>
       <c r="G149" t="n">
+        <v>12</v>
+      </c>
+      <c r="H149" t="n">
         <v>71</v>
       </c>
-      <c r="H149" t="n">
+      <c r="I149" t="n">
         <v>155</v>
       </c>
-      <c r="I149" t="n">
+      <c r="J149" t="n">
         <v>134</v>
       </c>
-      <c r="J149" t="n">
+      <c r="K149" t="n">
         <v>45</v>
       </c>
-      <c r="K149" t="inlineStr">
+      <c r="L149" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -6577,18 +7026,21 @@
         <v>164</v>
       </c>
       <c r="G150" t="n">
+        <v>12</v>
+      </c>
+      <c r="H150" t="n">
         <v>31</v>
       </c>
-      <c r="H150" t="n">
+      <c r="I150" t="n">
         <v>187</v>
       </c>
-      <c r="I150" t="n">
+      <c r="J150" t="n">
         <v>176</v>
       </c>
-      <c r="J150" t="n">
+      <c r="K150" t="n">
         <v>37</v>
       </c>
-      <c r="K150" t="inlineStr">
+      <c r="L150" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -6618,18 +7070,21 @@
         <v>170</v>
       </c>
       <c r="G151" t="n">
+        <v>9</v>
+      </c>
+      <c r="H151" t="n">
         <v>26</v>
       </c>
-      <c r="H151" t="n">
+      <c r="I151" t="n">
         <v>189</v>
       </c>
-      <c r="I151" t="n">
+      <c r="J151" t="n">
         <v>180</v>
       </c>
-      <c r="J151" t="n">
+      <c r="K151" t="n">
         <v>32</v>
       </c>
-      <c r="K151" t="inlineStr">
+      <c r="L151" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -6659,18 +7114,21 @@
         <v>176</v>
       </c>
       <c r="G152" t="n">
+        <v>15</v>
+      </c>
+      <c r="H152" t="n">
         <v>24</v>
       </c>
-      <c r="H152" t="n">
+      <c r="I152" t="n">
         <v>194</v>
       </c>
-      <c r="I152" t="n">
+      <c r="J152" t="n">
         <v>185</v>
       </c>
-      <c r="J152" t="n">
+      <c r="K152" t="n">
         <v>33</v>
       </c>
-      <c r="K152" t="inlineStr">
+      <c r="L152" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -6700,18 +7158,21 @@
         <v>165</v>
       </c>
       <c r="G153" t="n">
+        <v>18</v>
+      </c>
+      <c r="H153" t="n">
         <v>24</v>
       </c>
-      <c r="H153" t="n">
+      <c r="I153" t="n">
         <v>182</v>
       </c>
-      <c r="I153" t="n">
+      <c r="J153" t="n">
         <v>174</v>
       </c>
-      <c r="J153" t="n">
+      <c r="K153" t="n">
         <v>27</v>
       </c>
-      <c r="K153" t="inlineStr">
+      <c r="L153" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -6741,18 +7202,21 @@
         <v>160</v>
       </c>
       <c r="G154" t="n">
+        <v>15</v>
+      </c>
+      <c r="H154" t="n">
         <v>33</v>
       </c>
-      <c r="H154" t="n">
+      <c r="I154" t="n">
         <v>184</v>
       </c>
-      <c r="I154" t="n">
+      <c r="J154" t="n">
         <v>172</v>
       </c>
-      <c r="J154" t="n">
+      <c r="K154" t="n">
         <v>37</v>
       </c>
-      <c r="K154" t="inlineStr">
+      <c r="L154" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -6782,18 +7246,21 @@
         <v>164</v>
       </c>
       <c r="G155" t="n">
+        <v>15</v>
+      </c>
+      <c r="H155" t="n">
         <v>33</v>
       </c>
-      <c r="H155" t="n">
+      <c r="I155" t="n">
         <v>188</v>
       </c>
-      <c r="I155" t="n">
+      <c r="J155" t="n">
         <v>176</v>
       </c>
-      <c r="J155" t="n">
+      <c r="K155" t="n">
         <v>39</v>
       </c>
-      <c r="K155" t="inlineStr">
+      <c r="L155" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -6823,18 +7290,21 @@
         <v>125</v>
       </c>
       <c r="G156" t="n">
+        <v>17</v>
+      </c>
+      <c r="H156" t="n">
         <v>47</v>
       </c>
-      <c r="H156" t="n">
+      <c r="I156" t="n">
         <v>153</v>
       </c>
-      <c r="I156" t="n">
+      <c r="J156" t="n">
         <v>138</v>
       </c>
-      <c r="J156" t="n">
+      <c r="K156" t="n">
         <v>31</v>
       </c>
-      <c r="K156" t="inlineStr">
+      <c r="L156" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -6864,18 +7334,21 @@
         <v>126</v>
       </c>
       <c r="G157" t="n">
+        <v>16</v>
+      </c>
+      <c r="H157" t="n">
         <v>44</v>
       </c>
-      <c r="H157" t="n">
+      <c r="I157" t="n">
         <v>152</v>
       </c>
-      <c r="I157" t="n">
+      <c r="J157" t="n">
         <v>139</v>
       </c>
-      <c r="J157" t="n">
+      <c r="K157" t="n">
         <v>29</v>
       </c>
-      <c r="K157" t="inlineStr">
+      <c r="L157" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -6905,18 +7378,21 @@
         <v>128</v>
       </c>
       <c r="G158" t="n">
+        <v>12</v>
+      </c>
+      <c r="H158" t="n">
         <v>56</v>
       </c>
-      <c r="H158" t="n">
+      <c r="I158" t="n">
         <v>164</v>
       </c>
-      <c r="I158" t="n">
+      <c r="J158" t="n">
         <v>146</v>
       </c>
-      <c r="J158" t="n">
+      <c r="K158" t="n">
         <v>42</v>
       </c>
-      <c r="K158" t="inlineStr">
+      <c r="L158" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -6946,18 +7422,21 @@
         <v>124</v>
       </c>
       <c r="G159" t="n">
+        <v>13</v>
+      </c>
+      <c r="H159" t="n">
         <v>60</v>
       </c>
-      <c r="H159" t="n">
+      <c r="I159" t="n">
         <v>162</v>
       </c>
-      <c r="I159" t="n">
+      <c r="J159" t="n">
         <v>143</v>
       </c>
-      <c r="J159" t="n">
+      <c r="K159" t="n">
         <v>43</v>
       </c>
-      <c r="K159" t="inlineStr">
+      <c r="L159" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -6987,18 +7466,21 @@
         <v>132</v>
       </c>
       <c r="G160" t="n">
+        <v>11</v>
+      </c>
+      <c r="H160" t="n">
         <v>43</v>
       </c>
-      <c r="H160" t="n">
+      <c r="I160" t="n">
         <v>159</v>
       </c>
-      <c r="I160" t="n">
+      <c r="J160" t="n">
         <v>146</v>
       </c>
-      <c r="J160" t="n">
+      <c r="K160" t="n">
         <v>31</v>
       </c>
-      <c r="K160" t="inlineStr">
+      <c r="L160" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -7028,18 +7510,21 @@
         <v>142</v>
       </c>
       <c r="G161" t="n">
+        <v>13</v>
+      </c>
+      <c r="H161" t="n">
         <v>38</v>
       </c>
-      <c r="H161" t="n">
+      <c r="I161" t="n">
         <v>167</v>
       </c>
-      <c r="I161" t="n">
+      <c r="J161" t="n">
         <v>155</v>
       </c>
-      <c r="J161" t="n">
+      <c r="K161" t="n">
         <v>32</v>
       </c>
-      <c r="K161" t="inlineStr">
+      <c r="L161" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -7069,18 +7554,21 @@
         <v>130</v>
       </c>
       <c r="G162" t="n">
+        <v>13</v>
+      </c>
+      <c r="H162" t="n">
         <v>106</v>
       </c>
-      <c r="H162" t="n">
+      <c r="I162" t="n">
         <v>222</v>
       </c>
-      <c r="I162" t="n">
+      <c r="J162" t="n">
         <v>174</v>
       </c>
-      <c r="J162" t="n">
+      <c r="K162" t="n">
         <v>145</v>
       </c>
-      <c r="K162" t="inlineStr">
+      <c r="L162" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -7110,18 +7598,21 @@
         <v>146</v>
       </c>
       <c r="G163" t="n">
+        <v>13</v>
+      </c>
+      <c r="H163" t="n">
         <v>99</v>
       </c>
-      <c r="H163" t="n">
+      <c r="I163" t="n">
         <v>239</v>
       </c>
-      <c r="I163" t="n">
+      <c r="J163" t="n">
         <v>193</v>
       </c>
-      <c r="J163" t="n">
+      <c r="K163" t="n">
         <v>190</v>
       </c>
-      <c r="K163" t="inlineStr">
+      <c r="L163" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -7151,18 +7642,21 @@
         <v>90</v>
       </c>
       <c r="G164" t="n">
+        <v>12</v>
+      </c>
+      <c r="H164" t="n">
         <v>127</v>
       </c>
-      <c r="H164" t="n">
+      <c r="I164" t="n">
         <v>179</v>
       </c>
-      <c r="I164" t="n">
+      <c r="J164" t="n">
         <v>134</v>
       </c>
-      <c r="J164" t="n">
+      <c r="K164" t="n">
         <v>94</v>
       </c>
-      <c r="K164" t="inlineStr">
+      <c r="L164" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -7192,18 +7686,21 @@
         <v>89</v>
       </c>
       <c r="G165" t="n">
+        <v>13</v>
+      </c>
+      <c r="H165" t="n">
         <v>129</v>
       </c>
-      <c r="H165" t="n">
+      <c r="I165" t="n">
         <v>180</v>
       </c>
-      <c r="I165" t="n">
+      <c r="J165" t="n">
         <v>134</v>
       </c>
-      <c r="J165" t="n">
+      <c r="K165" t="n">
         <v>96</v>
       </c>
-      <c r="K165" t="inlineStr">
+      <c r="L165" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -7233,18 +7730,21 @@
         <v>72</v>
       </c>
       <c r="G166" t="n">
+        <v>12</v>
+      </c>
+      <c r="H166" t="n">
         <v>143</v>
       </c>
-      <c r="H166" t="n">
+      <c r="I166" t="n">
         <v>164</v>
       </c>
-      <c r="I166" t="n">
+      <c r="J166" t="n">
         <v>120</v>
       </c>
-      <c r="J166" t="n">
+      <c r="K166" t="n">
         <v>98</v>
       </c>
-      <c r="K166" t="inlineStr">
+      <c r="L166" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -7274,18 +7774,21 @@
         <v>61</v>
       </c>
       <c r="G167" t="n">
+        <v>12</v>
+      </c>
+      <c r="H167" t="n">
         <v>147</v>
       </c>
-      <c r="H167" t="n">
+      <c r="I167" t="n">
         <v>144</v>
       </c>
-      <c r="I167" t="n">
+      <c r="J167" t="n">
         <v>100</v>
       </c>
-      <c r="J167" t="n">
+      <c r="K167" t="n">
         <v>105</v>
       </c>
-      <c r="K167" t="inlineStr">
+      <c r="L167" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -7315,18 +7818,21 @@
         <v>71</v>
       </c>
       <c r="G168" t="n">
+        <v>13</v>
+      </c>
+      <c r="H168" t="n">
         <v>144</v>
       </c>
-      <c r="H168" t="n">
+      <c r="I168" t="n">
         <v>163</v>
       </c>
-      <c r="I168" t="n">
+      <c r="J168" t="n">
         <v>117</v>
       </c>
-      <c r="J168" t="n">
+      <c r="K168" t="n">
         <v>100</v>
       </c>
-      <c r="K168" t="inlineStr">
+      <c r="L168" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -7356,18 +7862,21 @@
         <v>62</v>
       </c>
       <c r="G169" t="n">
+        <v>13</v>
+      </c>
+      <c r="H169" t="n">
         <v>150</v>
       </c>
-      <c r="H169" t="n">
+      <c r="I169" t="n">
         <v>151</v>
       </c>
-      <c r="I169" t="n">
+      <c r="J169" t="n">
         <v>106</v>
       </c>
-      <c r="J169" t="n">
+      <c r="K169" t="n">
         <v>107</v>
       </c>
-      <c r="K169" t="inlineStr">
+      <c r="L169" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -7397,18 +7906,21 @@
         <v>164</v>
       </c>
       <c r="G170" t="n">
+        <v>13</v>
+      </c>
+      <c r="H170" t="n">
         <v>83</v>
       </c>
-      <c r="H170" t="n">
+      <c r="I170" t="n">
         <v>243</v>
       </c>
-      <c r="I170" t="n">
+      <c r="J170" t="n">
         <v>204</v>
       </c>
-      <c r="J170" t="n">
+      <c r="K170" t="n">
         <v>196</v>
       </c>
-      <c r="K170" t="inlineStr">
+      <c r="L170" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -7438,18 +7950,21 @@
         <v>154</v>
       </c>
       <c r="G171" t="n">
+        <v>12</v>
+      </c>
+      <c r="H171" t="n">
         <v>84</v>
       </c>
-      <c r="H171" t="n">
+      <c r="I171" t="n">
         <v>230</v>
       </c>
-      <c r="I171" t="n">
+      <c r="J171" t="n">
         <v>192</v>
       </c>
-      <c r="J171" t="n">
+      <c r="K171" t="n">
         <v>154</v>
       </c>
-      <c r="K171" t="inlineStr">
+      <c r="L171" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -7479,18 +7994,21 @@
         <v>98</v>
       </c>
       <c r="G172" t="n">
+        <v>14</v>
+      </c>
+      <c r="H172" t="n">
         <v>118</v>
       </c>
-      <c r="H172" t="n">
+      <c r="I172" t="n">
         <v>182</v>
       </c>
-      <c r="I172" t="n">
+      <c r="J172" t="n">
         <v>140</v>
       </c>
-      <c r="J172" t="n">
+      <c r="K172" t="n">
         <v>93</v>
       </c>
-      <c r="K172" t="inlineStr">
+      <c r="L172" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -7520,18 +8038,21 @@
         <v>104</v>
       </c>
       <c r="G173" t="n">
+        <v>14</v>
+      </c>
+      <c r="H173" t="n">
         <v>112</v>
       </c>
-      <c r="H173" t="n">
+      <c r="I173" t="n">
         <v>185</v>
       </c>
-      <c r="I173" t="n">
+      <c r="J173" t="n">
         <v>145</v>
       </c>
-      <c r="J173" t="n">
+      <c r="K173" t="n">
         <v>93</v>
       </c>
-      <c r="K173" t="inlineStr">
+      <c r="L173" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -7561,18 +8082,21 @@
         <v>77</v>
       </c>
       <c r="G174" t="n">
+        <v>12</v>
+      </c>
+      <c r="H174" t="n">
         <v>145</v>
       </c>
-      <c r="H174" t="n">
+      <c r="I174" t="n">
         <v>178</v>
       </c>
-      <c r="I174" t="n">
+      <c r="J174" t="n">
         <v>128</v>
       </c>
-      <c r="J174" t="n">
+      <c r="K174" t="n">
         <v>101</v>
       </c>
-      <c r="K174" t="inlineStr">
+      <c r="L174" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -7602,18 +8126,21 @@
         <v>64</v>
       </c>
       <c r="G175" t="n">
+        <v>12</v>
+      </c>
+      <c r="H175" t="n">
         <v>158</v>
       </c>
-      <c r="H175" t="n">
+      <c r="I175" t="n">
         <v>168</v>
       </c>
-      <c r="I175" t="n">
+      <c r="J175" t="n">
         <v>116</v>
       </c>
-      <c r="J175" t="n">
+      <c r="K175" t="n">
         <v>114</v>
       </c>
-      <c r="K175" t="inlineStr">
+      <c r="L175" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -7643,18 +8170,21 @@
         <v>102</v>
       </c>
       <c r="G176" t="n">
+        <v>15</v>
+      </c>
+      <c r="H176" t="n">
         <v>111</v>
       </c>
-      <c r="H176" t="n">
+      <c r="I176" t="n">
         <v>180</v>
       </c>
-      <c r="I176" t="n">
+      <c r="J176" t="n">
         <v>141</v>
       </c>
-      <c r="J176" t="n">
+      <c r="K176" t="n">
         <v>87</v>
       </c>
-      <c r="K176" t="inlineStr">
+      <c r="L176" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -7684,18 +8214,21 @@
         <v>98</v>
       </c>
       <c r="G177" t="n">
+        <v>15</v>
+      </c>
+      <c r="H177" t="n">
         <v>116</v>
       </c>
-      <c r="H177" t="n">
+      <c r="I177" t="n">
         <v>180</v>
       </c>
-      <c r="I177" t="n">
+      <c r="J177" t="n">
         <v>136</v>
       </c>
-      <c r="J177" t="n">
+      <c r="K177" t="n">
         <v>89</v>
       </c>
-      <c r="K177" t="inlineStr">
+      <c r="L177" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -7725,18 +8258,21 @@
         <v>150</v>
       </c>
       <c r="G178" t="n">
+        <v>15</v>
+      </c>
+      <c r="H178" t="n">
         <v>27</v>
       </c>
-      <c r="H178" t="n">
+      <c r="I178" t="n">
         <v>168</v>
       </c>
-      <c r="I178" t="n">
+      <c r="J178" t="n">
         <v>159</v>
       </c>
-      <c r="J178" t="n">
+      <c r="K178" t="n">
         <v>24</v>
       </c>
-      <c r="K178" t="inlineStr">
+      <c r="L178" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -7766,18 +8302,21 @@
         <v>166</v>
       </c>
       <c r="G179" t="n">
+        <v>16</v>
+      </c>
+      <c r="H179" t="n">
         <v>21</v>
       </c>
-      <c r="H179" t="n">
+      <c r="I179" t="n">
         <v>181</v>
       </c>
-      <c r="I179" t="n">
+      <c r="J179" t="n">
         <v>174</v>
       </c>
-      <c r="J179" t="n">
+      <c r="K179" t="n">
         <v>23</v>
       </c>
-      <c r="K179" t="inlineStr">
+      <c r="L179" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -7807,18 +8346,21 @@
         <v>137</v>
       </c>
       <c r="G180" t="n">
+        <v>15</v>
+      </c>
+      <c r="H180" t="n">
         <v>38</v>
       </c>
-      <c r="H180" t="n">
+      <c r="I180" t="n">
         <v>161</v>
       </c>
-      <c r="I180" t="n">
+      <c r="J180" t="n">
         <v>149</v>
       </c>
-      <c r="J180" t="n">
+      <c r="K180" t="n">
         <v>29</v>
       </c>
-      <c r="K180" t="inlineStr">
+      <c r="L180" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -7848,18 +8390,21 @@
         <v>150</v>
       </c>
       <c r="G181" t="n">
+        <v>14</v>
+      </c>
+      <c r="H181" t="n">
         <v>29</v>
       </c>
-      <c r="H181" t="n">
+      <c r="I181" t="n">
         <v>169</v>
       </c>
-      <c r="I181" t="n">
+      <c r="J181" t="n">
         <v>160</v>
       </c>
-      <c r="J181" t="n">
+      <c r="K181" t="n">
         <v>25</v>
       </c>
-      <c r="K181" t="inlineStr">
+      <c r="L181" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -7889,18 +8434,21 @@
         <v>153</v>
       </c>
       <c r="G182" t="n">
+        <v>11</v>
+      </c>
+      <c r="H182" t="n">
         <v>38</v>
       </c>
-      <c r="H182" t="n">
+      <c r="I182" t="n">
         <v>180</v>
       </c>
-      <c r="I182" t="n">
+      <c r="J182" t="n">
         <v>167</v>
       </c>
-      <c r="J182" t="n">
+      <c r="K182" t="n">
         <v>39</v>
       </c>
-      <c r="K182" t="inlineStr">
+      <c r="L182" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -7930,18 +8478,21 @@
         <v>164</v>
       </c>
       <c r="G183" t="n">
+        <v>13</v>
+      </c>
+      <c r="H183" t="n">
         <v>34</v>
       </c>
-      <c r="H183" t="n">
+      <c r="I183" t="n">
         <v>189</v>
       </c>
-      <c r="I183" t="n">
+      <c r="J183" t="n">
         <v>177</v>
       </c>
-      <c r="J183" t="n">
+      <c r="K183" t="n">
         <v>41</v>
       </c>
-      <c r="K183" t="inlineStr">
+      <c r="L183" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -7971,18 +8522,21 @@
         <v>156</v>
       </c>
       <c r="G184" t="n">
+        <v>13</v>
+      </c>
+      <c r="H184" t="n">
         <v>40</v>
       </c>
-      <c r="H184" t="n">
+      <c r="I184" t="n">
         <v>185</v>
       </c>
-      <c r="I184" t="n">
+      <c r="J184" t="n">
         <v>171</v>
       </c>
-      <c r="J184" t="n">
+      <c r="K184" t="n">
         <v>44</v>
       </c>
-      <c r="K184" t="inlineStr">
+      <c r="L184" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -8012,18 +8566,21 @@
         <v>180</v>
       </c>
       <c r="G185" t="n">
+        <v>11</v>
+      </c>
+      <c r="H185" t="n">
         <v>33</v>
       </c>
-      <c r="H185" t="n">
+      <c r="I185" t="n">
         <v>207</v>
       </c>
-      <c r="I185" t="n">
+      <c r="J185" t="n">
         <v>194</v>
       </c>
-      <c r="J185" t="n">
+      <c r="K185" t="n">
         <v>56</v>
       </c>
-      <c r="K185" t="inlineStr">
+      <c r="L185" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -8053,18 +8610,21 @@
         <v>113</v>
       </c>
       <c r="G186" t="n">
+        <v>13</v>
+      </c>
+      <c r="H186" t="n">
         <v>100</v>
       </c>
-      <c r="H186" t="n">
+      <c r="I186" t="n">
         <v>186</v>
       </c>
-      <c r="I186" t="n">
+      <c r="J186" t="n">
         <v>150</v>
       </c>
-      <c r="J186" t="n">
+      <c r="K186" t="n">
         <v>95</v>
       </c>
-      <c r="K186" t="inlineStr">
+      <c r="L186" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -8094,18 +8654,21 @@
         <v>70</v>
       </c>
       <c r="G187" t="n">
+        <v>12</v>
+      </c>
+      <c r="H187" t="n">
         <v>124</v>
       </c>
-      <c r="H187" t="n">
+      <c r="I187" t="n">
         <v>136</v>
       </c>
-      <c r="I187" t="n">
+      <c r="J187" t="n">
         <v>106</v>
       </c>
-      <c r="J187" t="n">
+      <c r="K187" t="n">
         <v>79</v>
       </c>
-      <c r="K187" t="inlineStr">
+      <c r="L187" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -8135,18 +8698,21 @@
         <v>128</v>
       </c>
       <c r="G188" t="n">
+        <v>13</v>
+      </c>
+      <c r="H188" t="n">
         <v>87</v>
       </c>
-      <c r="H188" t="n">
+      <c r="I188" t="n">
         <v>194</v>
       </c>
-      <c r="I188" t="n">
+      <c r="J188" t="n">
         <v>161</v>
       </c>
-      <c r="J188" t="n">
+      <c r="K188" t="n">
         <v>90</v>
       </c>
-      <c r="K188" t="inlineStr">
+      <c r="L188" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -8176,18 +8742,21 @@
         <v>112</v>
       </c>
       <c r="G189" t="n">
+        <v>13</v>
+      </c>
+      <c r="H189" t="n">
         <v>95</v>
       </c>
-      <c r="H189" t="n">
+      <c r="I189" t="n">
         <v>178</v>
       </c>
-      <c r="I189" t="n">
+      <c r="J189" t="n">
         <v>153</v>
       </c>
-      <c r="J189" t="n">
+      <c r="K189" t="n">
         <v>78</v>
       </c>
-      <c r="K189" t="inlineStr">
+      <c r="L189" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -8217,18 +8786,21 @@
         <v>86</v>
       </c>
       <c r="G190" t="n">
+        <v>14</v>
+      </c>
+      <c r="H190" t="n">
         <v>93</v>
       </c>
-      <c r="H190" t="n">
+      <c r="I190" t="n">
         <v>135</v>
       </c>
-      <c r="I190" t="n">
+      <c r="J190" t="n">
         <v>112</v>
       </c>
-      <c r="J190" t="n">
+      <c r="K190" t="n">
         <v>56</v>
       </c>
-      <c r="K190" t="inlineStr">
+      <c r="L190" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -8258,18 +8830,21 @@
         <v>103</v>
       </c>
       <c r="G191" t="n">
+        <v>14</v>
+      </c>
+      <c r="H191" t="n">
         <v>80</v>
       </c>
-      <c r="H191" t="n">
+      <c r="I191" t="n">
         <v>150</v>
       </c>
-      <c r="I191" t="n">
+      <c r="J191" t="n">
         <v>127</v>
       </c>
-      <c r="J191" t="n">
+      <c r="K191" t="n">
         <v>47</v>
       </c>
-      <c r="K191" t="inlineStr">
+      <c r="L191" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -8299,18 +8874,21 @@
         <v>89</v>
       </c>
       <c r="G192" t="n">
+        <v>12</v>
+      </c>
+      <c r="H192" t="n">
         <v>83</v>
       </c>
-      <c r="H192" t="n">
+      <c r="I192" t="n">
         <v>132</v>
       </c>
-      <c r="I192" t="n">
+      <c r="J192" t="n">
         <v>110</v>
       </c>
-      <c r="J192" t="n">
+      <c r="K192" t="n">
         <v>50</v>
       </c>
-      <c r="K192" t="inlineStr">
+      <c r="L192" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -8340,18 +8918,21 @@
         <v>122</v>
       </c>
       <c r="G193" t="n">
+        <v>12</v>
+      </c>
+      <c r="H193" t="n">
         <v>58</v>
       </c>
-      <c r="H193" t="n">
+      <c r="I193" t="n">
         <v>158</v>
       </c>
-      <c r="I193" t="n">
+      <c r="J193" t="n">
         <v>140</v>
       </c>
-      <c r="J193" t="n">
+      <c r="K193" t="n">
         <v>40</v>
       </c>
-      <c r="K193" t="inlineStr">
+      <c r="L193" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -8381,18 +8962,21 @@
         <v>68</v>
       </c>
       <c r="G194" t="n">
+        <v>9</v>
+      </c>
+      <c r="H194" t="n">
         <v>111</v>
       </c>
-      <c r="H194" t="n">
+      <c r="I194" t="n">
         <v>120</v>
       </c>
-      <c r="I194" t="n">
+      <c r="J194" t="n">
         <v>94</v>
       </c>
-      <c r="J194" t="n">
+      <c r="K194" t="n">
         <v>71</v>
       </c>
-      <c r="K194" t="inlineStr">
+      <c r="L194" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -8422,18 +9006,21 @@
         <v>122</v>
       </c>
       <c r="G195" t="n">
+        <v>11</v>
+      </c>
+      <c r="H195" t="n">
         <v>71</v>
       </c>
-      <c r="H195" t="n">
+      <c r="I195" t="n">
         <v>169</v>
       </c>
-      <c r="I195" t="n">
+      <c r="J195" t="n">
         <v>146</v>
       </c>
-      <c r="J195" t="n">
+      <c r="K195" t="n">
         <v>55</v>
       </c>
-      <c r="K195" t="inlineStr">
+      <c r="L195" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -8463,18 +9050,21 @@
         <v>93</v>
       </c>
       <c r="G196" t="n">
+        <v>8</v>
+      </c>
+      <c r="H196" t="n">
         <v>89</v>
       </c>
-      <c r="H196" t="n">
+      <c r="I196" t="n">
         <v>143</v>
       </c>
-      <c r="I196" t="n">
+      <c r="J196" t="n">
         <v>118</v>
       </c>
-      <c r="J196" t="n">
+      <c r="K196" t="n">
         <v>54</v>
       </c>
-      <c r="K196" t="inlineStr">
+      <c r="L196" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -8504,18 +9094,21 @@
         <v>112</v>
       </c>
       <c r="G197" t="n">
+        <v>10</v>
+      </c>
+      <c r="H197" t="n">
         <v>75</v>
       </c>
-      <c r="H197" t="n">
+      <c r="I197" t="n">
         <v>159</v>
       </c>
-      <c r="I197" t="n">
+      <c r="J197" t="n">
         <v>136</v>
       </c>
-      <c r="J197" t="n">
+      <c r="K197" t="n">
         <v>50</v>
       </c>
-      <c r="K197" t="inlineStr">
+      <c r="L197" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -8545,18 +9138,21 @@
         <v>83</v>
       </c>
       <c r="G198" t="n">
+        <v>10</v>
+      </c>
+      <c r="H198" t="n">
         <v>86</v>
       </c>
-      <c r="H198" t="n">
+      <c r="I198" t="n">
         <v>125</v>
       </c>
-      <c r="I198" t="n">
+      <c r="J198" t="n">
         <v>104</v>
       </c>
-      <c r="J198" t="n">
+      <c r="K198" t="n">
         <v>51</v>
       </c>
-      <c r="K198" t="inlineStr">
+      <c r="L198" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -8586,18 +9182,21 @@
         <v>150</v>
       </c>
       <c r="G199" t="n">
+        <v>10</v>
+      </c>
+      <c r="H199" t="n">
         <v>56</v>
       </c>
-      <c r="H199" t="n">
+      <c r="I199" t="n">
         <v>192</v>
       </c>
-      <c r="I199" t="n">
+      <c r="J199" t="n">
         <v>171</v>
       </c>
-      <c r="J199" t="n">
+      <c r="K199" t="n">
         <v>64</v>
       </c>
-      <c r="K199" t="inlineStr">
+      <c r="L199" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -8627,18 +9226,21 @@
         <v>86</v>
       </c>
       <c r="G200" t="n">
+        <v>11</v>
+      </c>
+      <c r="H200" t="n">
         <v>93</v>
       </c>
-      <c r="H200" t="n">
+      <c r="I200" t="n">
         <v>135</v>
       </c>
-      <c r="I200" t="n">
+      <c r="J200" t="n">
         <v>116</v>
       </c>
-      <c r="J200" t="n">
+      <c r="K200" t="n">
         <v>54</v>
       </c>
-      <c r="K200" t="inlineStr">
+      <c r="L200" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -8668,18 +9270,21 @@
         <v>153</v>
       </c>
       <c r="G201" t="n">
+        <v>10</v>
+      </c>
+      <c r="H201" t="n">
         <v>56</v>
       </c>
-      <c r="H201" t="n">
+      <c r="I201" t="n">
         <v>196</v>
       </c>
-      <c r="I201" t="n">
+      <c r="J201" t="n">
         <v>175</v>
       </c>
-      <c r="J201" t="n">
+      <c r="K201" t="n">
         <v>68</v>
       </c>
-      <c r="K201" t="inlineStr">
+      <c r="L201" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -8709,18 +9314,21 @@
         <v>137</v>
       </c>
       <c r="G202" t="n">
+        <v>8</v>
+      </c>
+      <c r="H202" t="n">
         <v>61</v>
       </c>
-      <c r="H202" t="n">
+      <c r="I202" t="n">
         <v>180</v>
       </c>
-      <c r="I202" t="n">
+      <c r="J202" t="n">
         <v>159</v>
       </c>
-      <c r="J202" t="n">
+      <c r="K202" t="n">
         <v>57</v>
       </c>
-      <c r="K202" t="inlineStr">
+      <c r="L202" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -8750,18 +9358,21 @@
         <v>155</v>
       </c>
       <c r="G203" t="n">
+        <v>5</v>
+      </c>
+      <c r="H203" t="n">
         <v>41</v>
       </c>
-      <c r="H203" t="n">
+      <c r="I203" t="n">
         <v>185</v>
       </c>
-      <c r="I203" t="n">
+      <c r="J203" t="n">
         <v>170</v>
       </c>
-      <c r="J203" t="n">
+      <c r="K203" t="n">
         <v>45</v>
       </c>
-      <c r="K203" t="inlineStr">
+      <c r="L203" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -8791,18 +9402,21 @@
         <v>149</v>
       </c>
       <c r="G204" t="n">
+        <v>5</v>
+      </c>
+      <c r="H204" t="n">
         <v>54</v>
       </c>
-      <c r="H204" t="n">
+      <c r="I204" t="n">
         <v>189</v>
       </c>
-      <c r="I204" t="n">
+      <c r="J204" t="n">
         <v>169</v>
       </c>
-      <c r="J204" t="n">
+      <c r="K204" t="n">
         <v>59</v>
       </c>
-      <c r="K204" t="inlineStr">
+      <c r="L204" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -8832,18 +9446,21 @@
         <v>142</v>
       </c>
       <c r="G205" t="n">
+        <v>9</v>
+      </c>
+      <c r="H205" t="n">
         <v>56</v>
       </c>
-      <c r="H205" t="n">
+      <c r="I205" t="n">
         <v>182</v>
       </c>
-      <c r="I205" t="n">
+      <c r="J205" t="n">
         <v>162</v>
       </c>
-      <c r="J205" t="n">
+      <c r="K205" t="n">
         <v>55</v>
       </c>
-      <c r="K205" t="inlineStr">
+      <c r="L205" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -8873,18 +9490,21 @@
         <v>120</v>
       </c>
       <c r="G206" t="n">
+        <v>14</v>
+      </c>
+      <c r="H206" t="n">
         <v>83</v>
       </c>
-      <c r="H206" t="n">
+      <c r="I206" t="n">
         <v>178</v>
       </c>
-      <c r="I206" t="n">
+      <c r="J206" t="n">
         <v>146</v>
       </c>
-      <c r="J206" t="n">
+      <c r="K206" t="n">
         <v>66</v>
       </c>
-      <c r="K206" t="inlineStr">
+      <c r="L206" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -8914,18 +9534,21 @@
         <v>154</v>
       </c>
       <c r="G207" t="n">
+        <v>14</v>
+      </c>
+      <c r="H207" t="n">
         <v>62</v>
       </c>
-      <c r="H207" t="n">
+      <c r="I207" t="n">
         <v>203</v>
       </c>
-      <c r="I207" t="n">
+      <c r="J207" t="n">
         <v>179</v>
       </c>
-      <c r="J207" t="n">
+      <c r="K207" t="n">
         <v>82</v>
       </c>
-      <c r="K207" t="inlineStr">
+      <c r="L207" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -8955,18 +9578,21 @@
         <v>115</v>
       </c>
       <c r="G208" t="n">
+        <v>13</v>
+      </c>
+      <c r="H208" t="n">
         <v>85</v>
       </c>
-      <c r="H208" t="n">
+      <c r="I208" t="n">
         <v>172</v>
       </c>
-      <c r="I208" t="n">
+      <c r="J208" t="n">
         <v>144</v>
       </c>
-      <c r="J208" t="n">
+      <c r="K208" t="n">
         <v>65</v>
       </c>
-      <c r="K208" t="inlineStr">
+      <c r="L208" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -8996,18 +9622,21 @@
         <v>160</v>
       </c>
       <c r="G209" t="n">
+        <v>15</v>
+      </c>
+      <c r="H209" t="n">
         <v>62</v>
       </c>
-      <c r="H209" t="n">
+      <c r="I209" t="n">
         <v>211</v>
       </c>
-      <c r="I209" t="n">
+      <c r="J209" t="n">
         <v>186</v>
       </c>
-      <c r="J209" t="n">
+      <c r="K209" t="n">
         <v>94</v>
       </c>
-      <c r="K209" t="inlineStr">
+      <c r="L209" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -9037,18 +9666,21 @@
         <v>152</v>
       </c>
       <c r="G210" t="n">
+        <v>5</v>
+      </c>
+      <c r="H210" t="n">
         <v>26</v>
       </c>
-      <c r="H210" t="n">
+      <c r="I210" t="n">
         <v>169</v>
       </c>
-      <c r="I210" t="n">
+      <c r="J210" t="n">
         <v>161</v>
       </c>
-      <c r="J210" t="n">
+      <c r="K210" t="n">
         <v>23</v>
       </c>
-      <c r="K210" t="inlineStr">
+      <c r="L210" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -9078,18 +9710,21 @@
         <v>210</v>
       </c>
       <c r="G211" t="n">
+        <v>77</v>
+      </c>
+      <c r="H211" t="n">
         <v>11</v>
       </c>
-      <c r="H211" t="n">
+      <c r="I211" t="n">
         <v>218</v>
       </c>
-      <c r="I211" t="n">
+      <c r="J211" t="n">
         <v>214</v>
       </c>
-      <c r="J211" t="n">
+      <c r="K211" t="n">
         <v>28</v>
       </c>
-      <c r="K211" t="inlineStr">
+      <c r="L211" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -9119,18 +9754,21 @@
         <v>159</v>
       </c>
       <c r="G212" t="n">
+        <v>2</v>
+      </c>
+      <c r="H212" t="n">
         <v>22</v>
       </c>
-      <c r="H212" t="n">
+      <c r="I212" t="n">
         <v>174</v>
       </c>
-      <c r="I212" t="n">
+      <c r="J212" t="n">
         <v>167</v>
       </c>
-      <c r="J212" t="n">
+      <c r="K212" t="n">
         <v>22</v>
       </c>
-      <c r="K212" t="inlineStr">
+      <c r="L212" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -9160,18 +9798,21 @@
         <v>208</v>
       </c>
       <c r="G213" t="n">
+        <v>3</v>
+      </c>
+      <c r="H213" t="n">
         <v>13</v>
       </c>
-      <c r="H213" t="n">
+      <c r="I213" t="n">
         <v>219</v>
       </c>
-      <c r="I213" t="n">
+      <c r="J213" t="n">
         <v>214</v>
       </c>
-      <c r="J213" t="n">
+      <c r="K213" t="n">
         <v>34</v>
       </c>
-      <c r="K213" t="inlineStr">
+      <c r="L213" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -9201,18 +9842,21 @@
         <v>156</v>
       </c>
       <c r="G214" t="n">
+        <v>16</v>
+      </c>
+      <c r="H214" t="n">
         <v>32</v>
       </c>
-      <c r="H214" t="n">
+      <c r="I214" t="n">
         <v>178</v>
       </c>
-      <c r="I214" t="n">
+      <c r="J214" t="n">
         <v>167</v>
       </c>
-      <c r="J214" t="n">
+      <c r="K214" t="n">
         <v>32</v>
       </c>
-      <c r="K214" t="inlineStr">
+      <c r="L214" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -9242,18 +9886,21 @@
         <v>188</v>
       </c>
       <c r="G215" t="n">
+        <v>17</v>
+      </c>
+      <c r="H215" t="n">
         <v>23</v>
       </c>
-      <c r="H215" t="n">
+      <c r="I215" t="n">
         <v>207</v>
       </c>
-      <c r="I215" t="n">
+      <c r="J215" t="n">
         <v>198</v>
       </c>
-      <c r="J215" t="n">
+      <c r="K215" t="n">
         <v>42</v>
       </c>
-      <c r="K215" t="inlineStr">
+      <c r="L215" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -9283,18 +9930,21 @@
         <v>123</v>
       </c>
       <c r="G216" t="n">
+        <v>12</v>
+      </c>
+      <c r="H216" t="n">
         <v>50</v>
       </c>
-      <c r="H216" t="n">
+      <c r="I216" t="n">
         <v>153</v>
       </c>
-      <c r="I216" t="n">
+      <c r="J216" t="n">
         <v>138</v>
       </c>
-      <c r="J216" t="n">
+      <c r="K216" t="n">
         <v>33</v>
       </c>
-      <c r="K216" t="inlineStr">
+      <c r="L216" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -9324,18 +9974,21 @@
         <v>178</v>
       </c>
       <c r="G217" t="n">
+        <v>14</v>
+      </c>
+      <c r="H217" t="n">
         <v>25</v>
       </c>
-      <c r="H217" t="n">
+      <c r="I217" t="n">
         <v>197</v>
       </c>
-      <c r="I217" t="n">
+      <c r="J217" t="n">
         <v>188</v>
       </c>
-      <c r="J217" t="n">
+      <c r="K217" t="n">
         <v>36</v>
       </c>
-      <c r="K217" t="inlineStr">
+      <c r="L217" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -9365,18 +10018,21 @@
         <v>139</v>
       </c>
       <c r="G218" t="n">
+        <v>15</v>
+      </c>
+      <c r="H218" t="n">
         <v>60</v>
       </c>
-      <c r="H218" t="n">
+      <c r="I218" t="n">
         <v>182</v>
       </c>
-      <c r="I218" t="n">
+      <c r="J218" t="n">
         <v>161</v>
       </c>
-      <c r="J218" t="n">
+      <c r="K218" t="n">
         <v>58</v>
       </c>
-      <c r="K218" t="inlineStr">
+      <c r="L218" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -9406,18 +10062,21 @@
         <v>168</v>
       </c>
       <c r="G219" t="n">
+        <v>14</v>
+      </c>
+      <c r="H219" t="n">
         <v>35</v>
       </c>
-      <c r="H219" t="n">
+      <c r="I219" t="n">
         <v>195</v>
       </c>
-      <c r="I219" t="n">
+      <c r="J219" t="n">
         <v>182</v>
       </c>
-      <c r="J219" t="n">
+      <c r="K219" t="n">
         <v>47</v>
       </c>
-      <c r="K219" t="inlineStr">
+      <c r="L219" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -9447,18 +10106,21 @@
         <v>135</v>
       </c>
       <c r="G220" t="n">
+        <v>15</v>
+      </c>
+      <c r="H220" t="n">
         <v>70</v>
       </c>
-      <c r="H220" t="n">
+      <c r="I220" t="n">
         <v>186</v>
       </c>
-      <c r="I220" t="n">
+      <c r="J220" t="n">
         <v>161</v>
       </c>
-      <c r="J220" t="n">
+      <c r="K220" t="n">
         <v>69</v>
       </c>
-      <c r="K220" t="inlineStr">
+      <c r="L220" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -9488,18 +10150,21 @@
         <v>148</v>
       </c>
       <c r="G221" t="n">
+        <v>15</v>
+      </c>
+      <c r="H221" t="n">
         <v>57</v>
       </c>
-      <c r="H221" t="n">
+      <c r="I221" t="n">
         <v>191</v>
       </c>
-      <c r="I221" t="n">
+      <c r="J221" t="n">
         <v>170</v>
       </c>
-      <c r="J221" t="n">
+      <c r="K221" t="n">
         <v>64</v>
       </c>
-      <c r="K221" t="inlineStr">
+      <c r="L221" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -9529,18 +10194,21 @@
         <v>175</v>
       </c>
       <c r="G222" t="n">
+        <v>16</v>
+      </c>
+      <c r="H222" t="n">
         <v>45</v>
       </c>
-      <c r="H222" t="n">
+      <c r="I222" t="n">
         <v>213</v>
       </c>
-      <c r="I222" t="n">
+      <c r="J222" t="n">
         <v>194</v>
       </c>
-      <c r="J222" t="n">
+      <c r="K222" t="n">
         <v>79</v>
       </c>
-      <c r="K222" t="inlineStr">
+      <c r="L222" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -9570,18 +10238,21 @@
         <v>192</v>
       </c>
       <c r="G223" t="n">
+        <v>15</v>
+      </c>
+      <c r="H223" t="n">
         <v>39</v>
       </c>
-      <c r="H223" t="n">
+      <c r="I223" t="n">
         <v>227</v>
       </c>
-      <c r="I223" t="n">
+      <c r="J223" t="n">
         <v>210</v>
       </c>
-      <c r="J223" t="n">
+      <c r="K223" t="n">
         <v>98</v>
       </c>
-      <c r="K223" t="inlineStr">
+      <c r="L223" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -9611,18 +10282,21 @@
         <v>165</v>
       </c>
       <c r="G224" t="n">
+        <v>16</v>
+      </c>
+      <c r="H224" t="n">
         <v>48</v>
       </c>
-      <c r="H224" t="n">
+      <c r="I224" t="n">
         <v>203</v>
       </c>
-      <c r="I224" t="n">
+      <c r="J224" t="n">
         <v>184</v>
       </c>
-      <c r="J224" t="n">
+      <c r="K224" t="n">
         <v>68</v>
       </c>
-      <c r="K224" t="inlineStr">
+      <c r="L224" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -9652,18 +10326,21 @@
         <v>165</v>
       </c>
       <c r="G225" t="n">
+        <v>16</v>
+      </c>
+      <c r="H225" t="n">
         <v>48</v>
       </c>
-      <c r="H225" t="n">
+      <c r="I225" t="n">
         <v>203</v>
       </c>
-      <c r="I225" t="n">
+      <c r="J225" t="n">
         <v>184</v>
       </c>
-      <c r="J225" t="n">
+      <c r="K225" t="n">
         <v>68</v>
       </c>
-      <c r="K225" t="inlineStr">
+      <c r="L225" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -9693,18 +10370,21 @@
         <v>59</v>
       </c>
       <c r="G226" t="n">
+        <v>11</v>
+      </c>
+      <c r="H226" t="n">
         <v>135</v>
       </c>
-      <c r="H226" t="n">
+      <c r="I226" t="n">
         <v>125</v>
       </c>
-      <c r="I226" t="n">
+      <c r="J226" t="n">
         <v>94</v>
       </c>
-      <c r="J226" t="n">
+      <c r="K226" t="n">
         <v>90</v>
       </c>
-      <c r="K226" t="inlineStr">
+      <c r="L226" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -9734,18 +10414,21 @@
         <v>88</v>
       </c>
       <c r="G227" t="n">
+        <v>13</v>
+      </c>
+      <c r="H227" t="n">
         <v>114</v>
       </c>
-      <c r="H227" t="n">
+      <c r="I227" t="n">
         <v>159</v>
       </c>
-      <c r="I227" t="n">
+      <c r="J227" t="n">
         <v>124</v>
       </c>
-      <c r="J227" t="n">
+      <c r="K227" t="n">
         <v>73</v>
       </c>
-      <c r="K227" t="inlineStr">
+      <c r="L227" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -9775,18 +10458,21 @@
         <v>60</v>
       </c>
       <c r="G228" t="n">
+        <v>10</v>
+      </c>
+      <c r="H228" t="n">
         <v>124</v>
       </c>
-      <c r="H228" t="n">
+      <c r="I228" t="n">
         <v>117</v>
       </c>
-      <c r="I228" t="n">
+      <c r="J228" t="n">
         <v>92</v>
       </c>
-      <c r="J228" t="n">
+      <c r="K228" t="n">
         <v>79</v>
       </c>
-      <c r="K228" t="inlineStr">
+      <c r="L228" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -9816,18 +10502,21 @@
         <v>104</v>
       </c>
       <c r="G229" t="n">
+        <v>12</v>
+      </c>
+      <c r="H229" t="n">
         <v>96</v>
       </c>
-      <c r="H229" t="n">
+      <c r="I229" t="n">
         <v>167</v>
       </c>
-      <c r="I229" t="n">
+      <c r="J229" t="n">
         <v>126</v>
       </c>
-      <c r="J229" t="n">
+      <c r="K229" t="n">
         <v>70</v>
       </c>
-      <c r="K229" t="inlineStr">
+      <c r="L229" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -9857,18 +10546,21 @@
         <v>91</v>
       </c>
       <c r="G230" t="n">
+        <v>9</v>
+      </c>
+      <c r="H230" t="n">
         <v>103</v>
       </c>
-      <c r="H230" t="n">
+      <c r="I230" t="n">
         <v>153</v>
       </c>
-      <c r="I230" t="n">
+      <c r="J230" t="n">
         <v>122</v>
       </c>
-      <c r="J230" t="n">
+      <c r="K230" t="n">
         <v>65</v>
       </c>
-      <c r="K230" t="inlineStr">
+      <c r="L230" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -9898,18 +10590,21 @@
         <v>93</v>
       </c>
       <c r="G231" t="n">
+        <v>10</v>
+      </c>
+      <c r="H231" t="n">
         <v>109</v>
       </c>
-      <c r="H231" t="n">
+      <c r="I231" t="n">
         <v>162</v>
       </c>
-      <c r="I231" t="n">
+      <c r="J231" t="n">
         <v>124</v>
       </c>
-      <c r="J231" t="n">
+      <c r="K231" t="n">
         <v>71</v>
       </c>
-      <c r="K231" t="inlineStr">
+      <c r="L231" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -9939,18 +10634,21 @@
         <v>73</v>
       </c>
       <c r="G232" t="n">
+        <v>7</v>
+      </c>
+      <c r="H232" t="n">
         <v>108</v>
       </c>
-      <c r="H232" t="n">
+      <c r="I232" t="n">
         <v>127</v>
       </c>
-      <c r="I232" t="n">
+      <c r="J232" t="n">
         <v>104</v>
       </c>
-      <c r="J232" t="n">
+      <c r="K232" t="n">
         <v>70</v>
       </c>
-      <c r="K232" t="inlineStr">
+      <c r="L232" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -9980,18 +10678,21 @@
         <v>82</v>
       </c>
       <c r="G233" t="n">
+        <v>10</v>
+      </c>
+      <c r="H233" t="n">
         <v>117</v>
       </c>
-      <c r="H233" t="n">
+      <c r="I233" t="n">
         <v>151</v>
       </c>
-      <c r="I233" t="n">
+      <c r="J233" t="n">
         <v>116</v>
       </c>
-      <c r="J233" t="n">
+      <c r="K233" t="n">
         <v>76</v>
       </c>
-      <c r="K233" t="inlineStr">
+      <c r="L233" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -10021,18 +10722,21 @@
         <v>101</v>
       </c>
       <c r="G234" t="n">
+        <v>9</v>
+      </c>
+      <c r="H234" t="n">
         <v>87</v>
       </c>
-      <c r="H234" t="n">
+      <c r="I234" t="n">
         <v>153</v>
       </c>
-      <c r="I234" t="n">
+      <c r="J234" t="n">
         <v>127</v>
       </c>
-      <c r="J234" t="n">
+      <c r="K234" t="n">
         <v>52</v>
       </c>
-      <c r="K234" t="inlineStr">
+      <c r="L234" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -10062,18 +10766,21 @@
         <v>123</v>
       </c>
       <c r="G235" t="n">
+        <v>10</v>
+      </c>
+      <c r="H235" t="n">
         <v>74</v>
       </c>
-      <c r="H235" t="n">
+      <c r="I235" t="n">
         <v>173</v>
       </c>
-      <c r="I235" t="n">
+      <c r="J235" t="n">
         <v>148</v>
       </c>
-      <c r="J235" t="n">
+      <c r="K235" t="n">
         <v>60</v>
       </c>
-      <c r="K235" t="inlineStr">
+      <c r="L235" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -10103,18 +10810,21 @@
         <v>88</v>
       </c>
       <c r="G236" t="n">
+        <v>10</v>
+      </c>
+      <c r="H236" t="n">
         <v>98</v>
       </c>
-      <c r="H236" t="n">
+      <c r="I236" t="n">
         <v>143</v>
       </c>
-      <c r="I236" t="n">
+      <c r="J236" t="n">
         <v>108</v>
       </c>
-      <c r="J236" t="n">
+      <c r="K236" t="n">
         <v>65</v>
       </c>
-      <c r="K236" t="inlineStr">
+      <c r="L236" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -10144,18 +10854,21 @@
         <v>129</v>
       </c>
       <c r="G237" t="n">
+        <v>9</v>
+      </c>
+      <c r="H237" t="n">
         <v>69</v>
       </c>
-      <c r="H237" t="n">
+      <c r="I237" t="n">
         <v>177</v>
       </c>
-      <c r="I237" t="n">
+      <c r="J237" t="n">
         <v>153</v>
       </c>
-      <c r="J237" t="n">
+      <c r="K237" t="n">
         <v>60</v>
       </c>
-      <c r="K237" t="inlineStr">
+      <c r="L237" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -10185,18 +10898,21 @@
         <v>169</v>
       </c>
       <c r="G238" t="n">
+        <v>3</v>
+      </c>
+      <c r="H238" t="n">
         <v>54</v>
       </c>
-      <c r="H238" t="n">
+      <c r="I238" t="n">
         <v>214</v>
       </c>
-      <c r="I238" t="n">
+      <c r="J238" t="n">
         <v>192</v>
       </c>
-      <c r="J238" t="n">
+      <c r="K238" t="n">
         <v>90</v>
       </c>
-      <c r="K238" t="inlineStr">
+      <c r="L238" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -10226,18 +10942,21 @@
         <v>182</v>
       </c>
       <c r="G239" t="n">
+        <v>4</v>
+      </c>
+      <c r="H239" t="n">
         <v>47</v>
       </c>
-      <c r="H239" t="n">
+      <c r="I239" t="n">
         <v>223</v>
       </c>
-      <c r="I239" t="n">
+      <c r="J239" t="n">
         <v>203</v>
       </c>
-      <c r="J239" t="n">
+      <c r="K239" t="n">
         <v>100</v>
       </c>
-      <c r="K239" t="inlineStr">
+      <c r="L239" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -10267,18 +10986,21 @@
         <v>141</v>
       </c>
       <c r="G240" t="n">
+        <v>79</v>
+      </c>
+      <c r="H240" t="n">
         <v>54</v>
       </c>
-      <c r="H240" t="n">
+      <c r="I240" t="n">
         <v>197</v>
       </c>
-      <c r="I240" t="n">
+      <c r="J240" t="n">
         <v>176</v>
       </c>
-      <c r="J240" t="n">
+      <c r="K240" t="n">
         <v>68</v>
       </c>
-      <c r="K240" t="inlineStr">
+      <c r="L240" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -10308,18 +11030,21 @@
         <v>167</v>
       </c>
       <c r="G241" t="n">
+        <v>4</v>
+      </c>
+      <c r="H241" t="n">
         <v>56</v>
       </c>
-      <c r="H241" t="n">
+      <c r="I241" t="n">
         <v>214</v>
       </c>
-      <c r="I241" t="n">
+      <c r="J241" t="n">
         <v>191</v>
       </c>
-      <c r="J241" t="n">
+      <c r="K241" t="n">
         <v>93</v>
       </c>
-      <c r="K241" t="inlineStr">
+      <c r="L241" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -10349,18 +11074,21 @@
         <v>75</v>
       </c>
       <c r="G242" t="n">
+        <v>8</v>
+      </c>
+      <c r="H242" t="n">
         <v>115</v>
       </c>
-      <c r="H242" t="n">
+      <c r="I242" t="n">
         <v>137</v>
       </c>
-      <c r="I242" t="n">
+      <c r="J242" t="n">
         <v>106</v>
       </c>
-      <c r="J242" t="n">
+      <c r="K242" t="n">
         <v>75</v>
       </c>
-      <c r="K242" t="inlineStr">
+      <c r="L242" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -10390,18 +11118,21 @@
         <v>116</v>
       </c>
       <c r="G243" t="n">
+        <v>10</v>
+      </c>
+      <c r="H243" t="n">
         <v>92</v>
       </c>
-      <c r="H243" t="n">
+      <c r="I243" t="n">
         <v>182</v>
       </c>
-      <c r="I243" t="n">
+      <c r="J243" t="n">
         <v>146</v>
       </c>
-      <c r="J243" t="n">
+      <c r="K243" t="n">
         <v>80</v>
       </c>
-      <c r="K243" t="inlineStr">
+      <c r="L243" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -10431,18 +11162,21 @@
         <v>86</v>
       </c>
       <c r="G244" t="n">
+        <v>10</v>
+      </c>
+      <c r="H244" t="n">
         <v>102</v>
       </c>
-      <c r="H244" t="n">
+      <c r="I244" t="n">
         <v>143</v>
       </c>
-      <c r="I244" t="n">
+      <c r="J244" t="n">
         <v>106</v>
       </c>
-      <c r="J244" t="n">
+      <c r="K244" t="n">
         <v>66</v>
       </c>
-      <c r="K244" t="inlineStr">
+      <c r="L244" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -10472,18 +11206,21 @@
         <v>118</v>
       </c>
       <c r="G245" t="n">
+        <v>12</v>
+      </c>
+      <c r="H245" t="n">
         <v>83</v>
       </c>
-      <c r="H245" t="n">
+      <c r="I245" t="n">
         <v>175</v>
       </c>
-      <c r="I245" t="n">
+      <c r="J245" t="n">
         <v>147</v>
       </c>
-      <c r="J245" t="n">
+      <c r="K245" t="n">
         <v>67</v>
       </c>
-      <c r="K245" t="inlineStr">
+      <c r="L245" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -10513,18 +11250,21 @@
         <v>98</v>
       </c>
       <c r="G246" t="n">
+        <v>13</v>
+      </c>
+      <c r="H246" t="n">
         <v>115</v>
       </c>
-      <c r="H246" t="n">
+      <c r="I246" t="n">
         <v>178</v>
       </c>
-      <c r="I246" t="n">
+      <c r="J246" t="n">
         <v>138</v>
       </c>
-      <c r="J246" t="n">
+      <c r="K246" t="n">
         <v>87</v>
       </c>
-      <c r="K246" t="inlineStr">
+      <c r="L246" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -10554,18 +11294,21 @@
         <v>157</v>
       </c>
       <c r="G247" t="n">
+        <v>13</v>
+      </c>
+      <c r="H247" t="n">
         <v>74</v>
       </c>
-      <c r="H247" t="n">
+      <c r="I247" t="n">
         <v>221</v>
       </c>
-      <c r="I247" t="n">
+      <c r="J247" t="n">
         <v>189</v>
       </c>
-      <c r="J247" t="n">
+      <c r="K247" t="n">
         <v>124</v>
       </c>
-      <c r="K247" t="inlineStr">
+      <c r="L247" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -10595,18 +11338,21 @@
         <v>95</v>
       </c>
       <c r="G248" t="n">
+        <v>13</v>
+      </c>
+      <c r="H248" t="n">
         <v>120</v>
       </c>
-      <c r="H248" t="n">
+      <c r="I248" t="n">
         <v>179</v>
       </c>
-      <c r="I248" t="n">
+      <c r="J248" t="n">
         <v>126</v>
       </c>
-      <c r="J248" t="n">
+      <c r="K248" t="n">
         <v>82</v>
       </c>
-      <c r="K248" t="inlineStr">
+      <c r="L248" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -10636,18 +11382,21 @@
         <v>136</v>
       </c>
       <c r="G249" t="n">
+        <v>13</v>
+      </c>
+      <c r="H249" t="n">
         <v>91</v>
       </c>
-      <c r="H249" t="n">
+      <c r="I249" t="n">
         <v>211</v>
       </c>
-      <c r="I249" t="n">
+      <c r="J249" t="n">
         <v>174</v>
       </c>
-      <c r="J249" t="n">
+      <c r="K249" t="n">
         <v>117</v>
       </c>
-      <c r="K249" t="inlineStr">
+      <c r="L249" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -10677,18 +11426,21 @@
         <v>77</v>
       </c>
       <c r="G250" t="n">
+        <v>14</v>
+      </c>
+      <c r="H250" t="n">
         <v>140</v>
       </c>
-      <c r="H250" t="n">
+      <c r="I250" t="n">
         <v>171</v>
       </c>
-      <c r="I250" t="n">
+      <c r="J250" t="n">
         <v>124</v>
       </c>
-      <c r="J250" t="n">
+      <c r="K250" t="n">
         <v>97</v>
       </c>
-      <c r="K250" t="inlineStr">
+      <c r="L250" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -10718,18 +11470,21 @@
         <v>124</v>
       </c>
       <c r="G251" t="n">
+        <v>12</v>
+      </c>
+      <c r="H251" t="n">
         <v>86</v>
       </c>
-      <c r="H251" t="n">
+      <c r="I251" t="n">
         <v>187</v>
       </c>
-      <c r="I251" t="n">
+      <c r="J251" t="n">
         <v>156</v>
       </c>
-      <c r="J251" t="n">
+      <c r="K251" t="n">
         <v>81</v>
       </c>
-      <c r="K251" t="inlineStr">
+      <c r="L251" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -10759,18 +11514,21 @@
         <v>57</v>
       </c>
       <c r="G252" t="n">
+        <v>12</v>
+      </c>
+      <c r="H252" t="n">
         <v>150</v>
       </c>
-      <c r="H252" t="n">
+      <c r="I252" t="n">
         <v>138</v>
       </c>
-      <c r="I252" t="n">
+      <c r="J252" t="n">
         <v>100</v>
       </c>
-      <c r="J252" t="n">
+      <c r="K252" t="n">
         <v>105</v>
       </c>
-      <c r="K252" t="inlineStr">
+      <c r="L252" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -10800,18 +11558,21 @@
         <v>134</v>
       </c>
       <c r="G253" t="n">
+        <v>6</v>
+      </c>
+      <c r="H253" t="n">
         <v>69</v>
       </c>
-      <c r="H253" t="n">
+      <c r="I253" t="n">
         <v>184</v>
       </c>
-      <c r="I253" t="n">
+      <c r="J253" t="n">
         <v>159</v>
       </c>
-      <c r="J253" t="n">
+      <c r="K253" t="n">
         <v>66</v>
       </c>
-      <c r="K253" t="inlineStr">
+      <c r="L253" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -10841,18 +11602,21 @@
         <v>143</v>
       </c>
       <c r="G254" t="n">
+        <v>11</v>
+      </c>
+      <c r="H254" t="n">
         <v>76</v>
       </c>
-      <c r="H254" t="n">
+      <c r="I254" t="n">
         <v>204</v>
       </c>
-      <c r="I254" t="n">
+      <c r="J254" t="n">
         <v>174</v>
       </c>
-      <c r="J254" t="n">
+      <c r="K254" t="n">
         <v>95</v>
       </c>
-      <c r="K254" t="inlineStr">
+      <c r="L254" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -10882,18 +11646,21 @@
         <v>178</v>
       </c>
       <c r="G255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" t="n">
         <v>47</v>
       </c>
-      <c r="H255" t="n">
+      <c r="I255" t="n">
         <v>218</v>
       </c>
-      <c r="I255" t="n">
+      <c r="J255" t="n">
         <v>198</v>
       </c>
-      <c r="J255" t="n">
+      <c r="K255" t="n">
         <v>89</v>
       </c>
-      <c r="K255" t="inlineStr">
+      <c r="L255" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -10923,18 +11690,21 @@
         <v>147</v>
       </c>
       <c r="G256" t="n">
+        <v>11</v>
+      </c>
+      <c r="H256" t="n">
         <v>67</v>
       </c>
-      <c r="H256" t="n">
+      <c r="I256" t="n">
         <v>199</v>
       </c>
-      <c r="I256" t="n">
+      <c r="J256" t="n">
         <v>173</v>
       </c>
-      <c r="J256" t="n">
+      <c r="K256" t="n">
         <v>81</v>
       </c>
-      <c r="K256" t="inlineStr">
+      <c r="L256" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -10964,18 +11734,21 @@
         <v>180</v>
       </c>
       <c r="G257" t="n">
+        <v>0</v>
+      </c>
+      <c r="H257" t="n">
         <v>46</v>
       </c>
-      <c r="H257" t="n">
+      <c r="I257" t="n">
         <v>220</v>
       </c>
-      <c r="I257" t="n">
+      <c r="J257" t="n">
         <v>200</v>
       </c>
-      <c r="J257" t="n">
+      <c r="K257" t="n">
         <v>93</v>
       </c>
-      <c r="K257" t="inlineStr">
+      <c r="L257" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -11005,18 +11778,21 @@
         <v>148</v>
       </c>
       <c r="G258" t="n">
+        <v>7</v>
+      </c>
+      <c r="H258" t="n">
         <v>68</v>
       </c>
-      <c r="H258" t="n">
+      <c r="I258" t="n">
         <v>202</v>
       </c>
-      <c r="I258" t="n">
+      <c r="J258" t="n">
         <v>175</v>
       </c>
-      <c r="J258" t="n">
+      <c r="K258" t="n">
         <v>86</v>
       </c>
-      <c r="K258" t="inlineStr">
+      <c r="L258" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -11046,18 +11822,21 @@
         <v>180</v>
       </c>
       <c r="G259" t="n">
+        <v>79</v>
+      </c>
+      <c r="H259" t="n">
         <v>47</v>
       </c>
-      <c r="H259" t="n">
+      <c r="I259" t="n">
         <v>219</v>
       </c>
-      <c r="I259" t="n">
+      <c r="J259" t="n">
         <v>199</v>
       </c>
-      <c r="J259" t="n">
+      <c r="K259" t="n">
         <v>91</v>
       </c>
-      <c r="K259" t="inlineStr">
+      <c r="L259" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -11087,18 +11866,21 @@
         <v>156</v>
       </c>
       <c r="G260" t="n">
+        <v>9</v>
+      </c>
+      <c r="H260" t="n">
         <v>65</v>
       </c>
-      <c r="H260" t="n">
+      <c r="I260" t="n">
         <v>209</v>
       </c>
-      <c r="I260" t="n">
+      <c r="J260" t="n">
         <v>183</v>
       </c>
-      <c r="J260" t="n">
+      <c r="K260" t="n">
         <v>93</v>
       </c>
-      <c r="K260" t="inlineStr">
+      <c r="L260" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -11128,18 +11910,21 @@
         <v>198</v>
       </c>
       <c r="G261" t="n">
+        <v>79</v>
+      </c>
+      <c r="H261" t="n">
         <v>36</v>
       </c>
-      <c r="H261" t="n">
+      <c r="I261" t="n">
         <v>229</v>
       </c>
-      <c r="I261" t="n">
+      <c r="J261" t="n">
         <v>213</v>
       </c>
-      <c r="J261" t="n">
+      <c r="K261" t="n">
         <v>97</v>
       </c>
-      <c r="K261" t="inlineStr">
+      <c r="L261" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -11169,18 +11954,21 @@
         <v>98</v>
       </c>
       <c r="G262" t="n">
+        <v>11</v>
+      </c>
+      <c r="H262" t="n">
         <v>91</v>
       </c>
-      <c r="H262" t="n">
+      <c r="I262" t="n">
         <v>152</v>
       </c>
-      <c r="I262" t="n">
+      <c r="J262" t="n">
         <v>125</v>
       </c>
-      <c r="J262" t="n">
+      <c r="K262" t="n">
         <v>55</v>
       </c>
-      <c r="K262" t="inlineStr">
+      <c r="L262" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -11210,18 +11998,21 @@
         <v>150</v>
       </c>
       <c r="G263" t="n">
+        <v>5</v>
+      </c>
+      <c r="H263" t="n">
         <v>34</v>
       </c>
-      <c r="H263" t="n">
+      <c r="I263" t="n">
         <v>173</v>
       </c>
-      <c r="I263" t="n">
+      <c r="J263" t="n">
         <v>162</v>
       </c>
-      <c r="J263" t="n">
+      <c r="K263" t="n">
         <v>31</v>
       </c>
-      <c r="K263" t="inlineStr">
+      <c r="L263" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -11251,18 +12042,21 @@
         <v>114</v>
       </c>
       <c r="G264" t="n">
+        <v>10</v>
+      </c>
+      <c r="H264" t="n">
         <v>85</v>
       </c>
-      <c r="H264" t="n">
+      <c r="I264" t="n">
         <v>171</v>
       </c>
-      <c r="I264" t="n">
+      <c r="J264" t="n">
         <v>146</v>
       </c>
-      <c r="J264" t="n">
+      <c r="K264" t="n">
         <v>66</v>
       </c>
-      <c r="K264" t="inlineStr">
+      <c r="L264" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -11292,18 +12086,21 @@
         <v>158</v>
       </c>
       <c r="G265" t="n">
+        <v>0</v>
+      </c>
+      <c r="H265" t="n">
         <v>47</v>
       </c>
-      <c r="H265" t="n">
+      <c r="I265" t="n">
         <v>194</v>
       </c>
-      <c r="I265" t="n">
+      <c r="J265" t="n">
         <v>176</v>
       </c>
-      <c r="J265" t="n">
+      <c r="K265" t="n">
         <v>58</v>
       </c>
-      <c r="K265" t="inlineStr">
+      <c r="L265" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -11333,18 +12130,21 @@
         <v>90</v>
       </c>
       <c r="G266" t="n">
+        <v>13</v>
+      </c>
+      <c r="H266" t="n">
         <v>106</v>
       </c>
-      <c r="H266" t="n">
+      <c r="I266" t="n">
         <v>154</v>
       </c>
-      <c r="I266" t="n">
+      <c r="J266" t="n">
         <v>122</v>
       </c>
-      <c r="J266" t="n">
+      <c r="K266" t="n">
         <v>67</v>
       </c>
-      <c r="K266" t="inlineStr">
+      <c r="L266" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -11374,18 +12174,21 @@
         <v>114</v>
       </c>
       <c r="G267" t="n">
+        <v>11</v>
+      </c>
+      <c r="H267" t="n">
         <v>72</v>
       </c>
-      <c r="H267" t="n">
+      <c r="I267" t="n">
         <v>159</v>
       </c>
-      <c r="I267" t="n">
+      <c r="J267" t="n">
         <v>137</v>
       </c>
-      <c r="J267" t="n">
+      <c r="K267" t="n">
         <v>48</v>
       </c>
-      <c r="K267" t="inlineStr">
+      <c r="L267" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -11415,18 +12218,21 @@
         <v>120</v>
       </c>
       <c r="G268" t="n">
+        <v>7</v>
+      </c>
+      <c r="H268" t="n">
         <v>93</v>
       </c>
-      <c r="H268" t="n">
+      <c r="I268" t="n">
         <v>189</v>
       </c>
-      <c r="I268" t="n">
+      <c r="J268" t="n">
         <v>153</v>
       </c>
-      <c r="J268" t="n">
+      <c r="K268" t="n">
         <v>88</v>
       </c>
-      <c r="K268" t="inlineStr">
+      <c r="L268" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -11456,18 +12262,21 @@
         <v>132</v>
       </c>
       <c r="G269" t="n">
+        <v>1</v>
+      </c>
+      <c r="H269" t="n">
         <v>77</v>
       </c>
-      <c r="H269" t="n">
+      <c r="I269" t="n">
         <v>189</v>
       </c>
-      <c r="I269" t="n">
+      <c r="J269" t="n">
         <v>161</v>
       </c>
-      <c r="J269" t="n">
+      <c r="K269" t="n">
         <v>77</v>
       </c>
-      <c r="K269" t="inlineStr">
+      <c r="L269" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -11497,18 +12306,21 @@
         <v>92</v>
       </c>
       <c r="G270" t="n">
+        <v>13</v>
+      </c>
+      <c r="H270" t="n">
         <v>115</v>
       </c>
-      <c r="H270" t="n">
+      <c r="I270" t="n">
         <v>167</v>
       </c>
-      <c r="I270" t="n">
+      <c r="J270" t="n">
         <v>130</v>
       </c>
-      <c r="J270" t="n">
+      <c r="K270" t="n">
         <v>76</v>
       </c>
-      <c r="K270" t="inlineStr">
+      <c r="L270" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -11538,18 +12350,21 @@
         <v>196</v>
       </c>
       <c r="G271" t="n">
+        <v>9</v>
+      </c>
+      <c r="H271" t="n">
         <v>33</v>
       </c>
-      <c r="H271" t="n">
+      <c r="I271" t="n">
         <v>225</v>
       </c>
-      <c r="I271" t="n">
+      <c r="J271" t="n">
         <v>211</v>
       </c>
-      <c r="J271" t="n">
+      <c r="K271" t="n">
         <v>83</v>
       </c>
-      <c r="K271" t="inlineStr">
+      <c r="L271" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -11579,18 +12394,21 @@
         <v>209</v>
       </c>
       <c r="G272" t="n">
+        <v>5</v>
+      </c>
+      <c r="H272" t="n">
         <v>32</v>
       </c>
-      <c r="H272" t="n">
+      <c r="I272" t="n">
         <v>239</v>
       </c>
-      <c r="I272" t="n">
+      <c r="J272" t="n">
         <v>224</v>
       </c>
-      <c r="J272" t="n">
+      <c r="K272" t="n">
         <v>123</v>
       </c>
-      <c r="K272" t="inlineStr">
+      <c r="L272" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -11620,18 +12438,21 @@
         <v>134</v>
       </c>
       <c r="G273" t="n">
+        <v>13</v>
+      </c>
+      <c r="H273" t="n">
         <v>88</v>
       </c>
-      <c r="H273" t="n">
+      <c r="I273" t="n">
         <v>205</v>
       </c>
-      <c r="I273" t="n">
+      <c r="J273" t="n">
         <v>175</v>
       </c>
-      <c r="J273" t="n">
+      <c r="K273" t="n">
         <v>112</v>
       </c>
-      <c r="K273" t="inlineStr">
+      <c r="L273" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -11661,18 +12482,21 @@
         <v>158</v>
       </c>
       <c r="G274" t="n">
+        <v>6</v>
+      </c>
+      <c r="H274" t="n">
         <v>49</v>
       </c>
-      <c r="H274" t="n">
+      <c r="I274" t="n">
         <v>196</v>
       </c>
-      <c r="I274" t="n">
+      <c r="J274" t="n">
         <v>177</v>
       </c>
-      <c r="J274" t="n">
+      <c r="K274" t="n">
         <v>62</v>
       </c>
-      <c r="K274" t="inlineStr">
+      <c r="L274" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -11702,18 +12526,21 @@
         <v>100</v>
       </c>
       <c r="G275" t="n">
+        <v>13</v>
+      </c>
+      <c r="H275" t="n">
         <v>103</v>
       </c>
-      <c r="H275" t="n">
+      <c r="I275" t="n">
         <v>168</v>
       </c>
-      <c r="I275" t="n">
+      <c r="J275" t="n">
         <v>134</v>
       </c>
-      <c r="J275" t="n">
+      <c r="K275" t="n">
         <v>72</v>
       </c>
-      <c r="K275" t="inlineStr">
+      <c r="L275" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -11743,18 +12570,21 @@
         <v>167</v>
       </c>
       <c r="G276" t="n">
+        <v>4</v>
+      </c>
+      <c r="H276" t="n">
         <v>45</v>
       </c>
-      <c r="H276" t="n">
+      <c r="I276" t="n">
         <v>203</v>
       </c>
-      <c r="I276" t="n">
+      <c r="J276" t="n">
         <v>185</v>
       </c>
-      <c r="J276" t="n">
+      <c r="K276" t="n">
         <v>66</v>
       </c>
-      <c r="K276" t="inlineStr">
+      <c r="L276" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -11784,18 +12614,21 @@
         <v>101</v>
       </c>
       <c r="G277" t="n">
+        <v>10</v>
+      </c>
+      <c r="H277" t="n">
         <v>104</v>
       </c>
-      <c r="H277" t="n">
+      <c r="I277" t="n">
         <v>171</v>
       </c>
-      <c r="I277" t="n">
+      <c r="J277" t="n">
         <v>136</v>
       </c>
-      <c r="J277" t="n">
+      <c r="K277" t="n">
         <v>75</v>
       </c>
-      <c r="K277" t="inlineStr">
+      <c r="L277" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -11825,18 +12658,21 @@
         <v>176</v>
       </c>
       <c r="G278" t="n">
+        <v>1</v>
+      </c>
+      <c r="H278" t="n">
         <v>68</v>
       </c>
-      <c r="H278" t="n">
+      <c r="I278" t="n">
         <v>240</v>
       </c>
-      <c r="I278" t="n">
+      <c r="J278" t="n">
         <v>208</v>
       </c>
-      <c r="J278" t="n">
+      <c r="K278" t="n">
         <v>174</v>
       </c>
-      <c r="K278" t="inlineStr">
+      <c r="L278" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -11866,18 +12702,21 @@
         <v>102</v>
       </c>
       <c r="G279" t="n">
+        <v>6</v>
+      </c>
+      <c r="H279" t="n">
         <v>124</v>
       </c>
-      <c r="H279" t="n">
+      <c r="I279" t="n">
         <v>199</v>
       </c>
-      <c r="I279" t="n">
+      <c r="J279" t="n">
         <v>154</v>
       </c>
-      <c r="J279" t="n">
+      <c r="K279" t="n">
         <v>119</v>
       </c>
-      <c r="K279" t="inlineStr">
+      <c r="L279" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -11907,18 +12746,21 @@
         <v>154</v>
       </c>
       <c r="G280" t="n">
+        <v>1</v>
+      </c>
+      <c r="H280" t="n">
         <v>85</v>
       </c>
-      <c r="H280" t="n">
+      <c r="I280" t="n">
         <v>231</v>
       </c>
-      <c r="I280" t="n">
+      <c r="J280" t="n">
         <v>193</v>
       </c>
-      <c r="J280" t="n">
+      <c r="K280" t="n">
         <v>157</v>
       </c>
-      <c r="K280" t="inlineStr">
+      <c r="L280" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -11948,18 +12790,21 @@
         <v>100</v>
       </c>
       <c r="G281" t="n">
+        <v>7</v>
+      </c>
+      <c r="H281" t="n">
         <v>123</v>
       </c>
-      <c r="H281" t="n">
+      <c r="I281" t="n">
         <v>193</v>
       </c>
-      <c r="I281" t="n">
+      <c r="J281" t="n">
         <v>147</v>
       </c>
-      <c r="J281" t="n">
+      <c r="K281" t="n">
         <v>109</v>
       </c>
-      <c r="K281" t="inlineStr">
+      <c r="L281" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -11989,18 +12834,21 @@
         <v>167</v>
       </c>
       <c r="G282" t="n">
+        <v>3</v>
+      </c>
+      <c r="H282" t="n">
         <v>81</v>
       </c>
-      <c r="H282" t="n">
+      <c r="I282" t="n">
         <v>245</v>
       </c>
-      <c r="I282" t="n">
+      <c r="J282" t="n">
         <v>219</v>
       </c>
-      <c r="J282" t="n">
+      <c r="K282" t="n">
         <v>255</v>
       </c>
-      <c r="K282" t="inlineStr">
+      <c r="L282" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -12030,18 +12878,21 @@
         <v>105</v>
       </c>
       <c r="G283" t="n">
+        <v>7</v>
+      </c>
+      <c r="H283" t="n">
         <v>128</v>
       </c>
-      <c r="H283" t="n">
+      <c r="I283" t="n">
         <v>199</v>
       </c>
-      <c r="I283" t="n">
+      <c r="J283" t="n">
         <v>149</v>
       </c>
-      <c r="J283" t="n">
+      <c r="K283" t="n">
         <v>120</v>
       </c>
-      <c r="K283" t="inlineStr">
+      <c r="L283" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -12071,18 +12922,21 @@
         <v>177</v>
       </c>
       <c r="G284" t="n">
+        <v>3</v>
+      </c>
+      <c r="H284" t="n">
         <v>72</v>
       </c>
-      <c r="H284" t="n">
+      <c r="I284" t="n">
         <v>247</v>
       </c>
-      <c r="I284" t="n">
+      <c r="J284" t="n">
         <v>212</v>
       </c>
-      <c r="J284" t="n">
+      <c r="K284" t="n">
         <v>208</v>
       </c>
-      <c r="K284" t="inlineStr">
+      <c r="L284" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -12112,18 +12966,21 @@
         <v>94</v>
       </c>
       <c r="G285" t="n">
+        <v>5</v>
+      </c>
+      <c r="H285" t="n">
         <v>130</v>
       </c>
-      <c r="H285" t="n">
+      <c r="I285" t="n">
         <v>192</v>
       </c>
-      <c r="I285" t="n">
+      <c r="J285" t="n">
         <v>143</v>
       </c>
-      <c r="J285" t="n">
+      <c r="K285" t="n">
         <v>112</v>
       </c>
-      <c r="K285" t="inlineStr">
+      <c r="L285" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -12153,18 +13010,21 @@
         <v>179</v>
       </c>
       <c r="G286" t="n">
+        <v>6</v>
+      </c>
+      <c r="H286" t="n">
         <v>68</v>
       </c>
-      <c r="H286" t="n">
+      <c r="I286" t="n">
         <v>244</v>
       </c>
-      <c r="I286" t="n">
+      <c r="J286" t="n">
         <v>212</v>
       </c>
-      <c r="J286" t="n">
+      <c r="K286" t="n">
         <v>191</v>
       </c>
-      <c r="K286" t="inlineStr">
+      <c r="L286" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -12194,18 +13054,21 @@
         <v>115</v>
       </c>
       <c r="G287" t="n">
+        <v>8</v>
+      </c>
+      <c r="H287" t="n">
         <v>105</v>
       </c>
-      <c r="H287" t="n">
+      <c r="I287" t="n">
         <v>195</v>
       </c>
-      <c r="I287" t="n">
+      <c r="J287" t="n">
         <v>155</v>
       </c>
-      <c r="J287" t="n">
+      <c r="K287" t="n">
         <v>102</v>
       </c>
-      <c r="K287" t="inlineStr">
+      <c r="L287" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -12235,18 +13098,21 @@
         <v>142</v>
       </c>
       <c r="G288" t="n">
+        <v>4</v>
+      </c>
+      <c r="H288" t="n">
         <v>95</v>
       </c>
-      <c r="H288" t="n">
+      <c r="I288" t="n">
         <v>227</v>
       </c>
-      <c r="I288" t="n">
+      <c r="J288" t="n">
         <v>185</v>
       </c>
-      <c r="J288" t="n">
+      <c r="K288" t="n">
         <v>154</v>
       </c>
-      <c r="K288" t="inlineStr">
+      <c r="L288" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -12276,18 +13142,21 @@
         <v>124</v>
       </c>
       <c r="G289" t="n">
+        <v>9</v>
+      </c>
+      <c r="H289" t="n">
         <v>108</v>
       </c>
-      <c r="H289" t="n">
+      <c r="I289" t="n">
         <v>215</v>
       </c>
-      <c r="I289" t="n">
+      <c r="J289" t="n">
         <v>170</v>
       </c>
-      <c r="J289" t="n">
+      <c r="K289" t="n">
         <v>136</v>
       </c>
-      <c r="K289" t="inlineStr">
+      <c r="L289" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -12317,18 +13186,21 @@
         <v>134</v>
       </c>
       <c r="G290" t="n">
+        <v>1</v>
+      </c>
+      <c r="H290" t="n">
         <v>61</v>
       </c>
-      <c r="H290" t="n">
+      <c r="I290" t="n">
         <v>176</v>
       </c>
-      <c r="I290" t="n">
+      <c r="J290" t="n">
         <v>155</v>
       </c>
-      <c r="J290" t="n">
+      <c r="K290" t="n">
         <v>54</v>
       </c>
-      <c r="K290" t="inlineStr">
+      <c r="L290" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -12358,18 +13230,21 @@
         <v>75</v>
       </c>
       <c r="G291" t="n">
+        <v>9</v>
+      </c>
+      <c r="H291" t="n">
         <v>106</v>
       </c>
-      <c r="H291" t="n">
+      <c r="I291" t="n">
         <v>128</v>
       </c>
-      <c r="I291" t="n">
+      <c r="J291" t="n">
         <v>100</v>
       </c>
-      <c r="J291" t="n">
+      <c r="K291" t="n">
         <v>70</v>
       </c>
-      <c r="K291" t="inlineStr">
+      <c r="L291" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
@@ -12399,18 +13274,21 @@
         <v>102</v>
       </c>
       <c r="G292" t="n">
+        <v>4</v>
+      </c>
+      <c r="H292" t="n">
         <v>84</v>
       </c>
-      <c r="H292" t="n">
+      <c r="I292" t="n">
         <v>152</v>
       </c>
-      <c r="I292" t="n">
+      <c r="J292" t="n">
         <v>129</v>
       </c>
-      <c r="J292" t="n">
+      <c r="K292" t="n">
         <v>51</v>
       </c>
-      <c r="K292" t="inlineStr">
+      <c r="L292" t="inlineStr">
         <is>
           <t>dentro</t>
         </is>
@@ -12440,18 +13318,21 @@
         <v>64</v>
       </c>
       <c r="G293" t="n">
+        <v>8</v>
+      </c>
+      <c r="H293" t="n">
         <v>117</v>
       </c>
-      <c r="H293" t="n">
+      <c r="I293" t="n">
         <v>118</v>
       </c>
-      <c r="I293" t="n">
+      <c r="J293" t="n">
         <v>91</v>
       </c>
-      <c r="J293" t="n">
+      <c r="K293" t="n">
         <v>76</v>
       </c>
-      <c r="K293" t="inlineStr">
+      <c r="L293" t="inlineStr">
         <is>
           <t>fora</t>
         </is>
